--- a/data/TimeComplexity - COW (improved).xlsx
+++ b/data/TimeComplexity - COW (improved).xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4bd372ea196dfa5b/Documents/College/The College of Wooster/Senior/I.S/Shapefile-Network-Navigator/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rbrib\OneDrive\Documents\College\The College of Wooster\Senior\I.S\Shapefile-Network-Navigator\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{94D948ED-493A-41BC-A120-864ED85B4D67}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="8_{94D948ED-493A-41BC-A120-864ED85B4D67}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{9902F845-D29D-459F-ABD4-E13D553ACB62}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="time and grid size" sheetId="1" r:id="rId1"/>
@@ -510,301 +510,301 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="99"/>
                 <c:pt idx="0">
-                  <c:v>7.1394999027252197</c:v>
+                  <c:v>1.225201368331909</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.1418170928955078</c:v>
+                  <c:v>0.67393374443054199</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.385420560836792</c:v>
+                  <c:v>0.6634979248046875</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.8066504001617429</c:v>
+                  <c:v>0.4366309642791748</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.7234053611755371</c:v>
+                  <c:v>0.42383074760437012</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.2057139873504641</c:v>
+                  <c:v>0.28247451782226563</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.1482663154602051</c:v>
+                  <c:v>0.31357789039611822</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.75275635719299316</c:v>
+                  <c:v>0.26561379432678223</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.54907727241516113</c:v>
+                  <c:v>0.24403595924377439</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.51766562461853027</c:v>
+                  <c:v>0.2256584167480469</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.60027766227722168</c:v>
+                  <c:v>0.21869897842407229</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.57189774513244629</c:v>
+                  <c:v>0.21869897842407229</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.53197479248046875</c:v>
+                  <c:v>0.1828961372375488</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.59513354301452637</c:v>
+                  <c:v>0.20312690734863281</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.50539708137512207</c:v>
+                  <c:v>0.21875</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.4355316162109375</c:v>
+                  <c:v>0.2053728103637695</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.42726349830627441</c:v>
+                  <c:v>0.18745565414428711</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.40750479698181152</c:v>
+                  <c:v>0.17187619209289551</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.37637996673583979</c:v>
+                  <c:v>0.1718404293060303</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.44600439071655268</c:v>
+                  <c:v>0.20312595367431641</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.37508821487426758</c:v>
+                  <c:v>0.18813562393188479</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.3452141284942627</c:v>
+                  <c:v>0.17183208465576169</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.34590625762939448</c:v>
+                  <c:v>0.17183446884155271</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.3647763729095459</c:v>
+                  <c:v>0.18741679191589361</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.34516096115112299</c:v>
+                  <c:v>0.21874237060546881</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.34530019760131841</c:v>
+                  <c:v>0.18741059303283689</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.34522676467895508</c:v>
+                  <c:v>0.19658541679382319</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.38035249710083008</c:v>
+                  <c:v>0.17179083824157709</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.34370875358581537</c:v>
+                  <c:v>0.20426201820373541</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.33672571182250982</c:v>
+                  <c:v>0.18749785423278811</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.32804989814758301</c:v>
+                  <c:v>0.20082378387451169</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.37494802474975591</c:v>
+                  <c:v>0.2073409557342529</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.32801032066345209</c:v>
+                  <c:v>0.2342946529388428</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.35305356979370123</c:v>
+                  <c:v>0.1874580383300781</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.33651614189147949</c:v>
+                  <c:v>0.18976378440856931</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.41309762001037598</c:v>
+                  <c:v>0.22175693511962891</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.32805013656616211</c:v>
+                  <c:v>0.3905341625213623</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.32804775238037109</c:v>
+                  <c:v>0.35928916931152338</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.32805061340332031</c:v>
+                  <c:v>0.29680538177490229</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.34362339973449713</c:v>
+                  <c:v>0.29680252075195313</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.37487530708312988</c:v>
+                  <c:v>0.32809114456176758</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.32558894157409668</c:v>
+                  <c:v>0.35982370376586909</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.32239937782287598</c:v>
+                  <c:v>0.28118276596069341</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.3259422779083252</c:v>
+                  <c:v>0.20532894134521479</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.39197850227355963</c:v>
+                  <c:v>0.20311903953552249</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.31723833084106451</c:v>
+                  <c:v>0.24994587898254389</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.29676318168640142</c:v>
+                  <c:v>0.2209124565124512</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.28114175796508789</c:v>
+                  <c:v>0.29169201850891108</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.31379413604736328</c:v>
+                  <c:v>0.24998807907104489</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.36077713966369629</c:v>
+                  <c:v>0.25720310211181641</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.31394338607788091</c:v>
+                  <c:v>0.22962689399719241</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.28362703323364258</c:v>
+                  <c:v>0.21874213218688959</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.32804512977600098</c:v>
+                  <c:v>0.23427653312683111</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.37491083145141602</c:v>
+                  <c:v>0.22680020332336431</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.31352424621582031</c:v>
+                  <c:v>0.23435759544372561</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.31801342964172358</c:v>
+                  <c:v>0.32805490493774409</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.31360363960266108</c:v>
+                  <c:v>0.35928010940551758</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.39213371276855469</c:v>
+                  <c:v>0.2200515270233154</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.32173562049865723</c:v>
+                  <c:v>0.28249549865722662</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.3280022144317627</c:v>
+                  <c:v>0.24995970726013181</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.32977128028869629</c:v>
+                  <c:v>0.2499434947967529</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.3296043872833252</c:v>
+                  <c:v>0.25221371650695801</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.41708683967590332</c:v>
+                  <c:v>0.29827380180358892</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.35108327865600591</c:v>
+                  <c:v>0.24989533424377439</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.34051203727722168</c:v>
+                  <c:v>0.24055600166320801</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.34370779991149902</c:v>
+                  <c:v>0.25238204002380371</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.40878701210021973</c:v>
+                  <c:v>0.32005929946899409</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.35674571990966802</c:v>
+                  <c:v>0.26560592651367188</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.34905242919921881</c:v>
+                  <c:v>0.26448583602905268</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.36089372634887701</c:v>
+                  <c:v>0.39207077026367188</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.42177343368530268</c:v>
+                  <c:v>0.31465005874633789</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.37487173080444341</c:v>
+                  <c:v>0.26804018020629877</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.4033050537109375</c:v>
+                  <c:v>0.28113174438476563</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.39905357360839838</c:v>
+                  <c:v>0.2834630012512207</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.49336433410644531</c:v>
+                  <c:v>0.34196615219116211</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.41651034355163569</c:v>
+                  <c:v>0.28450465202331537</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.41715264320373541</c:v>
+                  <c:v>0.28254270553588873</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.40367317199707031</c:v>
+                  <c:v>0.27449274063110352</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.53664994239807129</c:v>
+                  <c:v>0.48653721809387213</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.51721882820129395</c:v>
+                  <c:v>0.39391875267028809</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.43803167343139648</c:v>
+                  <c:v>0.56198716163635254</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.44282627105712891</c:v>
+                  <c:v>0.43938207626342768</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.48582029342651373</c:v>
+                  <c:v>0.46030402183532709</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.43454504013061518</c:v>
+                  <c:v>0.38660073280334473</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.48543787002563482</c:v>
+                  <c:v>0.39058303833007813</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.50144267082214355</c:v>
+                  <c:v>0.44087123870849609</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.47014594078063959</c:v>
+                  <c:v>0.5415036678314209</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.44219684600830078</c:v>
+                  <c:v>0.35193538665771479</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.44648122787475591</c:v>
+                  <c:v>0.40851235389709473</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.48426270484924322</c:v>
+                  <c:v>0.48754668235778809</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0.42174005508422852</c:v>
+                  <c:v>0.4387359619140625</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0.40311408042907709</c:v>
+                  <c:v>0.54847192764282227</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0.42333245277404791</c:v>
+                  <c:v>0.70460104942321777</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>1.2600922584533689</c:v>
+                  <c:v>0.64287948608398438</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0.52154803276062012</c:v>
+                  <c:v>0.4860072135925293</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0.46213221549987787</c:v>
+                  <c:v>0.48687410354614258</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0.55223417282104492</c:v>
+                  <c:v>0.43868613243103027</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0.43973231315612787</c:v>
+                  <c:v>0.40756392478942871</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>0.45460724830627441</c:v>
+                  <c:v>0.40855574607849121</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -855,8 +855,9 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:noFill/>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -1406,301 +1407,301 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="99"/>
                 <c:pt idx="0">
-                  <c:v>5.5561304092407227E-2</c:v>
+                  <c:v>1.5580654144287109E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.1283378601074219E-2</c:v>
+                  <c:v>1.5623569488525391E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.1241655349731449E-2</c:v>
+                  <c:v>1.5619277954101561E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.1285762786865227E-2</c:v>
+                  <c:v>1.5674114227294918E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.1239748001098629E-2</c:v>
+                  <c:v>1.561832427978516E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.5580654144287109E-2</c:v>
+                  <c:v>1.5619993209838871E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.1244993209838871E-2</c:v>
+                  <c:v>1.5659332275390622E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.5623092651367189E-2</c:v>
+                  <c:v>1.562070846557617E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.562404632568359E-2</c:v>
+                  <c:v>1.5619277954101561E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.2151956558227541E-2</c:v>
+                  <c:v>1.5666007995605469E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.1244277954101559E-2</c:v>
+                  <c:v>3.2566070556640618E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.1240463256835941E-2</c:v>
+                  <c:v>1.5576839447021479E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.6282320022583011E-2</c:v>
+                  <c:v>1.5619039535522459E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.5624284744262701E-2</c:v>
+                  <c:v>1.562047004699707E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.1243085861206051E-2</c:v>
+                  <c:v>1.561641693115234E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.5657663345336911E-2</c:v>
+                  <c:v>1.562094688415527E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
+                  <c:v>1.5665769577026371E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.5625715255737301E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.5622615814208979E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>1.5622377395629879E-2</c:v>
                 </c:pt>
-                <c:pt idx="17">
-                  <c:v>1.562142372131348E-2</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>3.124284744262695E-2</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>3.1242609024047852E-2</c:v>
-                </c:pt>
                 <c:pt idx="20">
-                  <c:v>2.803897857666016E-2</c:v>
+                  <c:v>1.562070846557617E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3.124284744262695E-2</c:v>
+                  <c:v>1.56245231628418E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3.1243085861206051E-2</c:v>
+                  <c:v>1.562190055847168E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3.1243085861206051E-2</c:v>
+                  <c:v>4.2005777359008789E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3.124547004699707E-2</c:v>
+                  <c:v>1.557826995849609E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3.1243085861206051E-2</c:v>
+                  <c:v>1.5673160552978519E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.5619277954101561E-2</c:v>
+                  <c:v>1.391720771789551E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3.1243085861206051E-2</c:v>
+                  <c:v>1.562070846557617E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.5623092651367189E-2</c:v>
+                  <c:v>1.562380790710449E-2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3.1202316284179691E-2</c:v>
+                  <c:v>1.5622854232788089E-2</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3.1242609024047852E-2</c:v>
+                  <c:v>1.557540893554688E-2</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1.5622854232788089E-2</c:v>
+                  <c:v>4.6863317489624023E-2</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1.5619277954101561E-2</c:v>
+                  <c:v>1.5619993209838871E-2</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>3.1243562698364261E-2</c:v>
+                  <c:v>1.5619993209838871E-2</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1.562118530273438E-2</c:v>
+                  <c:v>1.557826995849609E-2</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>3.1240224838256839E-2</c:v>
+                  <c:v>1.556801795959473E-2</c:v>
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>1.562166213989258E-2</c:v>
                 </c:pt>
                 <c:pt idx="37">
+                  <c:v>3.1242609024047852E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3.1294107437133789E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3.124332427978516E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.5576839447021479E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>6.2484979629516602E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.55794620513916E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.562047004699707E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.5581607818603521E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.562809944152832E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.563262939453125E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2.317357063293457E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.561689376831055E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.560521125793457E-2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.562213897705078E-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
                   <c:v>1.5622377395629879E-2</c:v>
                 </c:pt>
-                <c:pt idx="38">
-                  <c:v>1.5618085861206049E-2</c:v>
-                </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="53">
+                  <c:v>1.5619993209838871E-2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.562118530273438E-2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.5573263168334959E-2</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.5623092651367189E-2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.5648603439331051E-2</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.562047004699707E-2</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.5625715255737301E-2</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.5581130981445311E-2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.562118530273438E-2</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.561379432678223E-2</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.562905311584473E-2</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>9.2382431030273438E-3</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.5627861022949219E-2</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.5623331069946291E-2</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.562809944152832E-2</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1.5675783157348629E-2</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.5674114227294918E-2</c:v>
+                </c:pt>
+                <c:pt idx="72">
                   <c:v>1.562070846557617E-2</c:v>
                 </c:pt>
-                <c:pt idx="40">
-                  <c:v>1.562190055847168E-2</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>1.558232307434082E-2</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>1.562213897705078E-2</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>1.5661001205444339E-2</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>1.2262344360351561E-2</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>1.562213897705078E-2</c:v>
-                </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="73">
+                  <c:v>1.5631198883056641E-2</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1.5653133392333981E-2</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1.5630722045898441E-2</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1.5619993209838871E-2</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>3.1191349029541019E-2</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1.562380790710449E-2</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1.562166213989258E-2</c:v>
+                </c:pt>
+                <c:pt idx="80">
                   <c:v>1.562142372131348E-2</c:v>
                 </c:pt>
-                <c:pt idx="48">
-                  <c:v>1.562166213989258E-2</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>1.562166213989258E-2</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>1.5619754791259771E-2</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>1.5670061111450199E-2</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>3.1290769577026367E-2</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>1.562118530273438E-2</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>1.5622377395629879E-2</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>1.5622377395629879E-2</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>3.1242132186889648E-2</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>8.0060958862304688E-3</c:v>
-                </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="81">
+                  <c:v>1.5672445297241211E-2</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1.5619277954101561E-2</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1.562094688415527E-2</c:v>
+                </c:pt>
+                <c:pt idx="84">
                   <c:v>1.562380790710449E-2</c:v>
                 </c:pt>
-                <c:pt idx="60">
-                  <c:v>3.1194925308227539E-2</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>1.562166213989258E-2</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>1.5622377395629879E-2</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>1.204299926757812E-2</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>2.0031929016113281E-2</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>3.1239748001098629E-2</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>1.557493209838867E-2</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>1.557135581970215E-2</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>1.5619993209838871E-2</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>1.5622615814208979E-2</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>1.562023162841797E-2</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>1.5624284744262701E-2</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>1.5624284744262701E-2</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>1.5667438507080082E-2</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>1.561856269836426E-2</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>1.5623331069946291E-2</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>4.1887760162353524E-3</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>4.1594505310058594E-3</c:v>
-                </c:pt>
                 <c:pt idx="85">
-                  <c:v>1.5580654144287109E-2</c:v>
+                  <c:v>1.401209831237793E-2</c:v>
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>1.22377872467041E-2</c:v>
+                  <c:v>1.5580654144287109E-2</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>4.0006637573242188E-3</c:v>
+                  <c:v>1.558637619018555E-2</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>1.599979400634766E-2</c:v>
+                  <c:v>1.5663862228393551E-2</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>1.5622854232788089E-2</c:v>
+                  <c:v>1.562142372131348E-2</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0</c:v>
+                  <c:v>3.1245231628417969E-2</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>1.5630960464477539E-2</c:v>
+                  <c:v>3.124284744262695E-2</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>3.081607818603516E-2</c:v>
+                  <c:v>1.562166213989258E-2</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0</c:v>
+                  <c:v>1.5626192092895511E-2</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>1.5619516372680661E-2</c:v>
+                  <c:v>3.8665294647216797E-2</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0</c:v>
+                  <c:v>1.55789852142334E-2</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0</c:v>
+                  <c:v>1.5624284744262701E-2</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>1.562190055847168E-2</c:v>
+                  <c:v>1.566624641418457E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1751,8 +1752,9 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:noFill/>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -2302,301 +2304,301 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="99"/>
                 <c:pt idx="0">
-                  <c:v>0.23431944847106931</c:v>
+                  <c:v>0.1093990802764893</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.17179703712463379</c:v>
+                  <c:v>0.1093473434448242</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.1874542236328125</c:v>
+                  <c:v>0.1093502044677734</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.15616726875305181</c:v>
+                  <c:v>0.1093506813049316</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.15769171714782709</c:v>
+                  <c:v>0.10935235023498539</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.1874535083770752</c:v>
+                  <c:v>0.1250112056732178</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.15621280670166021</c:v>
+                  <c:v>0.1093101501464844</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.1093895435333252</c:v>
+                  <c:v>8.041691780090332E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>0.1093943119049072</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.8062534332275391E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.11655378341674801</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9.3729257583618164E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.10934996604919429</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8.0327272415161133E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>0.1093490123748779</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.10934996604919429</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.17187166213989261</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.17183709144592291</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.17187619209289551</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.1093482971191406</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.20476508140563959</c:v>
-                </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.1249330043792725</c:v>
+                  <c:v>9.3689203262329102E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.17183232307434079</c:v>
+                  <c:v>9.4421625137329102E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.14063334465026861</c:v>
+                  <c:v>7.8063249588012695E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.15625190734863281</c:v>
+                  <c:v>9.6967458724975586E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.15772390365600589</c:v>
+                  <c:v>9.3723297119140625E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.1605875492095947</c:v>
+                  <c:v>9.3726634979248047E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.17179536819458011</c:v>
+                  <c:v>0.1217019557952881</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.1562156677246094</c:v>
+                  <c:v>7.8150510787963867E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.1562151908874512</c:v>
+                  <c:v>0.1633913516998291</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.14058756828308111</c:v>
+                  <c:v>9.6013784408569336E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.17187595367431641</c:v>
+                  <c:v>7.8104496002197266E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.1249284744262695</c:v>
+                  <c:v>7.2770595550537109E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.15621304512023931</c:v>
+                  <c:v>9.3769550323486328E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.10930609703063961</c:v>
+                  <c:v>9.3677043914794922E-2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.1606490612030029</c:v>
+                  <c:v>9.229588508605957E-2</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.129364013671875</c:v>
+                  <c:v>9.3774557113647461E-2</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.14601898193359381</c:v>
+                  <c:v>9.3731880187988281E-2</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>9.3726873397827148E-2</c:v>
+                  <c:v>8.846735954284668E-2</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.1614692211151123</c:v>
+                  <c:v>0.14059329032897949</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.1259043216705322</c:v>
+                  <c:v>0.1093473434448242</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.1692802906036377</c:v>
+                  <c:v>0.1235809326171875</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>9.5021247863769531E-2</c:v>
+                  <c:v>0.1117162704467773</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.17333698272705081</c:v>
+                  <c:v>0.1419672966003418</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.12704181671142581</c:v>
+                  <c:v>0.111600399017334</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.15343499183654791</c:v>
+                  <c:v>0.14076447486877439</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>4.6858310699462891E-2</c:v>
+                  <c:v>0.1250147819519043</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.14063119888305661</c:v>
+                  <c:v>0.1252171993255615</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>4.6861648559570313E-2</c:v>
+                  <c:v>9.3770027160644531E-2</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>9.376215934753418E-2</c:v>
+                  <c:v>9.372711181640625E-2</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>6.2445878982543952E-2</c:v>
+                  <c:v>7.9782485961914063E-2</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>9.3726634979248047E-2</c:v>
+                  <c:v>7.810664176940918E-2</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.11081933975219729</c:v>
+                  <c:v>7.8058481216430664E-2</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>7.8107595443725586E-2</c:v>
+                  <c:v>0.124971866607666</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.1093459129333496</c:v>
+                  <c:v>9.8179340362548828E-2</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>7.810664176940918E-2</c:v>
+                  <c:v>7.8112602233886719E-2</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.1093482971191406</c:v>
+                  <c:v>9.373927116394043E-2</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>3.1236171722412109E-2</c:v>
+                  <c:v>9.2825651168823242E-2</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.1106147766113281</c:v>
+                  <c:v>7.8147411346435547E-2</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>6.24847412109375E-2</c:v>
+                  <c:v>0.12502312660217291</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>6.2484264373779297E-2</c:v>
+                  <c:v>8.9928150177001953E-2</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>6.2486171722412109E-2</c:v>
+                  <c:v>9.4938039779663086E-2</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.1249675750732422</c:v>
+                  <c:v>0.10504460334777831</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>7.8102827072143555E-2</c:v>
+                  <c:v>9.3732118606567383E-2</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>4.7460794448852539E-2</c:v>
+                  <c:v>9.3770742416381836E-2</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>9.3727350234985352E-2</c:v>
+                  <c:v>8.033442497253418E-2</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.1093876361846924</c:v>
+                  <c:v>9.3731403350830078E-2</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>3.124237060546875E-2</c:v>
+                  <c:v>7.8110218048095703E-2</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>4.6864986419677727E-2</c:v>
+                  <c:v>9.3773603439331055E-2</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>6.2481403350830078E-2</c:v>
+                  <c:v>8.4460020065307617E-2</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>7.4836015701293945E-2</c:v>
+                  <c:v>7.8099489212036133E-2</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>3.1250953674316413E-2</c:v>
+                  <c:v>9.3684911727905273E-2</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>4.6865224838256843E-2</c:v>
+                  <c:v>7.8108310699462891E-2</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>4.6861171722412109E-2</c:v>
+                  <c:v>7.8106403350830078E-2</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>6.2485933303833008E-2</c:v>
+                  <c:v>9.3771934509277344E-2</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>1.562404632568359E-2</c:v>
+                  <c:v>9.3718767166137695E-2</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>2.8254032135009769E-2</c:v>
+                  <c:v>9.3719244003295898E-2</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.1106870174407959</c:v>
+                  <c:v>7.8103780746459961E-2</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>7.1375608444213867E-2</c:v>
+                  <c:v>0.14284324645996091</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>4.6863079071044922E-2</c:v>
+                  <c:v>9.3675851821899414E-2</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>3.1244039535522461E-2</c:v>
+                  <c:v>7.8121423721313477E-2</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>6.2482357025146477E-2</c:v>
+                  <c:v>7.8099966049194336E-2</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>3.124332427978516E-2</c:v>
+                  <c:v>7.8101396560668945E-2</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>6.2483787536621087E-2</c:v>
+                  <c:v>0.10267090797424321</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>4.6860933303833008E-2</c:v>
+                  <c:v>0.10934972763061521</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>5.115199089050293E-2</c:v>
+                  <c:v>9.367823600769043E-2</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>4.6863079071044922E-2</c:v>
+                  <c:v>0.15621328353881839</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.13331866264343259</c:v>
+                  <c:v>0.14188504219055181</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>6.2487125396728523E-2</c:v>
+                  <c:v>0.1106266975402832</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>3.124237060546875E-2</c:v>
+                  <c:v>9.846949577331543E-2</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>1.5623331069946291E-2</c:v>
+                  <c:v>8.1265449523925781E-2</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>4.6906232833862298E-2</c:v>
+                  <c:v>9.3285560607910156E-2</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>3.1285762786865227E-2</c:v>
+                  <c:v>0.10934782028198239</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>4.6903610229492188E-2</c:v>
+                  <c:v>9.3726158142089844E-2</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>2.0072698593139648E-2</c:v>
+                  <c:v>9.3729019165039063E-2</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>3.2222747802734382E-2</c:v>
+                  <c:v>0.1249265670776367</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>1.5619277954101561E-2</c:v>
+                  <c:v>0.1093485355377197</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>4.686284065246582E-2</c:v>
+                  <c:v>0.14340734481811521</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>3.1196832656860352E-2</c:v>
+                  <c:v>0.22003054618835449</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0.12492489814758299</c:v>
+                  <c:v>0.15626001358032229</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>6.2486171722412109E-2</c:v>
+                  <c:v>0.12497687339782711</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>4.6865701675415039E-2</c:v>
+                  <c:v>0.1042938232421875</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>4.6862363815307617E-2</c:v>
+                  <c:v>7.8148841857910156E-2</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>4.6822071075439453E-2</c:v>
+                  <c:v>9.3676090240478516E-2</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>3.124237060546875E-2</c:v>
+                  <c:v>0.1249251365661621</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2647,8 +2649,9 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:noFill/>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -3198,301 +3201,301 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="99"/>
                 <c:pt idx="0">
+                  <c:v>1.5618801116943359E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.1200885772705082E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.562142372131348E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.1190156936645511E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.1241655349731449E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.5626668930053711E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.1242609024047852E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.1245231628417969E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.1242609024047852E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.1240701675415039E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.566720008850098E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.5619516372680661E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.1196355819702148E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.1202077865600589E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.557493209838867E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.5619754791259771E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.716971397399902E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.1286239624023438E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.562094688415527E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.1198740005493161E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.55789852142334E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.013492584228516E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
                   <c:v>3.124189376831055E-2</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.1242132186889648E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="23">
+                  <c:v>4.6863555908203118E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.566767692565918E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.5623331069946291E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.1286478042602539E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.5580892562866209E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.124237060546875E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.9143342971801761E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.557540893554688E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.1267642974853523E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2.2893428802490231E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.562118530273438E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.1243085861206051E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>6.2485218048095703E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.1198740005493161E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.1242609024047852E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3.1201601028442379E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.784205436706543E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>3.3859968185424798E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>3.1287431716918952E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.5576601028442379E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3.120064735412598E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.562023162841797E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.5611410140991209E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3.124284744262695E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>3.1243801116943359E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.221036911010742E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.5615463256835939E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>3.1192302703857418E-2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.8869161605834961E-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>3.1243801116943359E-2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.5570163726806641E-2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>6.2527894973754883E-2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>3.1293392181396477E-2</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2.0943880081176761E-2</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.5616655349731451E-2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1.558041572570801E-2</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.562190055847168E-2</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.5623331069946291E-2</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>3.1193733215332031E-2</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.562118530273438E-2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2.0941019058227539E-2</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>3.125E-2</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.562070846557617E-2</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>3.124284744262695E-2</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>3.458714485168457E-2</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.557588577270508E-2</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.562094688415527E-2</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1.562118530273438E-2</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>3.124594688415527E-2</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1.562213897705078E-2</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1.5670537948608398E-2</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>3.1244754791259769E-2</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1.562118530273438E-2</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>3.1240224838256839E-2</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>3.1243085861206051E-2</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>4.6862363815307617E-2</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>3.1239986419677731E-2</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>4.686427116394043E-2</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>2.5927543640136719E-2</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1.5658855438232418E-2</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>3.124284744262695E-2</c:v>
+                </c:pt>
+                <c:pt idx="84">
                   <c:v>3.124332427978516E-2</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.6864748001098633E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4.6898841857910163E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.7626733779907227E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4.6861171722412109E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.562190055847168E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="85">
+                  <c:v>1.56254768371582E-2</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>3.1244039535522461E-2</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>3.1243801116943359E-2</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1.5662908554077148E-2</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>3.124284744262695E-2</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>4.6863794326782227E-2</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>3.124284744262695E-2</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>4.6863794326782227E-2</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>3.1247138977050781E-2</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>4.6943187713623047E-2</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>3.1198978424072269E-2</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>3.1244516372680661E-2</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1.562118530273438E-2</c:v>
+                </c:pt>
+                <c:pt idx="98">
                   <c:v>3.124237060546875E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3.124284744262695E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3.1203031539916989E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>4.0356874465942383E-2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>3.1202554702758789E-2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>3.1242609024047852E-2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>4.7120094299316413E-2</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>3.1240701675415039E-2</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>3.1283140182495117E-2</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>3.1203031539916989E-2</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>5.5269956588745117E-2</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>4.6863794326782227E-2</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>4.686284065246582E-2</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>4.6866416931152337E-2</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>4.6864748001098633E-2</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>4.6867847442626953E-2</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>3.1244039535522461E-2</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>3.1239986419677731E-2</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>3.124547004699707E-2</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>4.4355869293212891E-2</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>3.9647817611694343E-2</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>2.8253793716430661E-2</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>2.82139778137207E-2</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>3.1281471252441413E-2</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>3.2176494598388672E-2</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>4.6863317489624023E-2</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>2.3931741714477539E-2</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>3.1242609024047852E-2</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>1.5619039535522459E-2</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>3.1203031539916989E-2</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>1.566720008850098E-2</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>2.3907899856567379E-2</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>1.562166213989258E-2</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>3.1252145767211907E-2</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>1.5661716461181641E-2</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>3.124690055847168E-2</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>1.562094688415527E-2</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>1.5665054321289059E-2</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>3.1280517578125E-2</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>1.566410064697266E-2</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>3.1244754791259769E-2</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>1.5622377395629879E-2</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>1.562118530273438E-2</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>1.5580654144287109E-2</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>3.1245231628417969E-2</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>1.586461067199707E-2</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>1.562094688415527E-2</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>1.562047004699707E-2</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>3.1244993209838871E-2</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>1.5622377395629879E-2</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>1.562166213989258E-2</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>3.1205892562866211E-2</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>1.562094688415527E-2</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>3.1244516372680661E-2</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>1.562118530273438E-2</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>1.5576601028442379E-2</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>1.5619516372680661E-2</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>1.562047004699707E-2</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>1.5619516372680661E-2</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>1.5664339065551761E-2</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>3.1244754791259769E-2</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>1.2247562408447271E-2</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>1.562166213989258E-2</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>1.5622854232788089E-2</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>1.5619993209838871E-2</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>1.562094688415527E-2</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>1.200127601623535E-2</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>2.0071268081665039E-2</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>1.5622377395629879E-2</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>1.5618801116943359E-2</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>1.5662431716918949E-2</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>1.5622377395629879E-2</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>1.55789852142334E-2</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>1.5580654144287109E-2</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>1.5580892562866209E-2</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>1.5658140182495121E-2</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>1.9916534423828122E-2</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>1.562166213989258E-2</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>1.562070846557617E-2</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>1.5619516372680661E-2</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>1.562142372131348E-2</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>1.562070846557617E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3543,8 +3546,9 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:noFill/>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -4094,301 +4098,301 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="99"/>
                 <c:pt idx="0">
-                  <c:v>5.5561304092407227E-2</c:v>
+                  <c:v>1.5580654144287109E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.1283378601074219E-2</c:v>
+                  <c:v>1.5623569488525391E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.1241655349731449E-2</c:v>
+                  <c:v>1.5619277954101561E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.1285762786865227E-2</c:v>
+                  <c:v>1.5674114227294918E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.1239748001098629E-2</c:v>
+                  <c:v>1.561832427978516E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.5580654144287109E-2</c:v>
+                  <c:v>1.5619993209838871E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.1244993209838871E-2</c:v>
+                  <c:v>1.5659332275390622E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.5623092651367189E-2</c:v>
+                  <c:v>1.562070846557617E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.562404632568359E-2</c:v>
+                  <c:v>1.5619277954101561E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.2151956558227541E-2</c:v>
+                  <c:v>1.5666007995605469E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.1244277954101559E-2</c:v>
+                  <c:v>3.2566070556640618E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.1240463256835941E-2</c:v>
+                  <c:v>1.5576839447021479E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.6282320022583011E-2</c:v>
+                  <c:v>1.5619039535522459E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.5624284744262701E-2</c:v>
+                  <c:v>1.562047004699707E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.1243085861206051E-2</c:v>
+                  <c:v>1.561641693115234E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.5657663345336911E-2</c:v>
+                  <c:v>1.562094688415527E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
+                  <c:v>1.5665769577026371E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.5625715255737301E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.5622615814208979E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>1.5622377395629879E-2</c:v>
                 </c:pt>
-                <c:pt idx="17">
-                  <c:v>1.562142372131348E-2</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>3.124284744262695E-2</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>3.1242609024047852E-2</c:v>
-                </c:pt>
                 <c:pt idx="20">
-                  <c:v>2.803897857666016E-2</c:v>
+                  <c:v>1.562070846557617E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3.124284744262695E-2</c:v>
+                  <c:v>1.56245231628418E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3.1243085861206051E-2</c:v>
+                  <c:v>1.562190055847168E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3.1243085861206051E-2</c:v>
+                  <c:v>4.2005777359008789E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3.124547004699707E-2</c:v>
+                  <c:v>1.557826995849609E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3.1243085861206051E-2</c:v>
+                  <c:v>1.5673160552978519E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.5619277954101561E-2</c:v>
+                  <c:v>1.391720771789551E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3.1243085861206051E-2</c:v>
+                  <c:v>1.562070846557617E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.5623092651367189E-2</c:v>
+                  <c:v>1.562380790710449E-2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3.1202316284179691E-2</c:v>
+                  <c:v>1.5622854232788089E-2</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3.1242609024047852E-2</c:v>
+                  <c:v>1.557540893554688E-2</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1.5622854232788089E-2</c:v>
+                  <c:v>4.6863317489624023E-2</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1.5619277954101561E-2</c:v>
+                  <c:v>1.5619993209838871E-2</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>3.1243562698364261E-2</c:v>
+                  <c:v>1.5619993209838871E-2</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1.562118530273438E-2</c:v>
+                  <c:v>1.557826995849609E-2</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>3.1240224838256839E-2</c:v>
+                  <c:v>1.556801795959473E-2</c:v>
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>1.562166213989258E-2</c:v>
                 </c:pt>
                 <c:pt idx="37">
+                  <c:v>3.1242609024047852E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3.1294107437133789E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3.124332427978516E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.5576839447021479E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>6.2484979629516602E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.55794620513916E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.562047004699707E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.5581607818603521E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.562809944152832E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.563262939453125E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2.317357063293457E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.561689376831055E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.560521125793457E-2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.562213897705078E-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
                   <c:v>1.5622377395629879E-2</c:v>
                 </c:pt>
-                <c:pt idx="38">
-                  <c:v>1.5618085861206049E-2</c:v>
-                </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="53">
+                  <c:v>1.5619993209838871E-2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.562118530273438E-2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.5573263168334959E-2</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.5623092651367189E-2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.5648603439331051E-2</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.562047004699707E-2</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.5625715255737301E-2</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.5581130981445311E-2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.562118530273438E-2</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.561379432678223E-2</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.562905311584473E-2</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>9.2382431030273438E-3</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.5627861022949219E-2</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.5623331069946291E-2</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.562809944152832E-2</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1.5675783157348629E-2</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.5674114227294918E-2</c:v>
+                </c:pt>
+                <c:pt idx="72">
                   <c:v>1.562070846557617E-2</c:v>
                 </c:pt>
-                <c:pt idx="40">
-                  <c:v>1.562190055847168E-2</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>1.558232307434082E-2</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>1.562213897705078E-2</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>1.5661001205444339E-2</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>1.2262344360351561E-2</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>1.562213897705078E-2</c:v>
-                </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="73">
+                  <c:v>1.5631198883056641E-2</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1.5653133392333981E-2</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1.5630722045898441E-2</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1.5619993209838871E-2</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>3.1191349029541019E-2</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1.562380790710449E-2</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1.562166213989258E-2</c:v>
+                </c:pt>
+                <c:pt idx="80">
                   <c:v>1.562142372131348E-2</c:v>
                 </c:pt>
-                <c:pt idx="48">
-                  <c:v>1.562166213989258E-2</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>1.562166213989258E-2</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>1.5619754791259771E-2</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>1.5670061111450199E-2</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>3.1290769577026367E-2</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>1.562118530273438E-2</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>1.5622377395629879E-2</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>1.5622377395629879E-2</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>3.1242132186889648E-2</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>8.0060958862304688E-3</c:v>
-                </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="81">
+                  <c:v>1.5672445297241211E-2</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1.5619277954101561E-2</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1.562094688415527E-2</c:v>
+                </c:pt>
+                <c:pt idx="84">
                   <c:v>1.562380790710449E-2</c:v>
                 </c:pt>
-                <c:pt idx="60">
-                  <c:v>3.1194925308227539E-2</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>1.562166213989258E-2</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>1.5622377395629879E-2</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>1.204299926757812E-2</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>2.0031929016113281E-2</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>3.1239748001098629E-2</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>1.557493209838867E-2</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>1.557135581970215E-2</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>1.5619993209838871E-2</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>1.5622615814208979E-2</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>1.562023162841797E-2</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>1.5624284744262701E-2</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>1.5624284744262701E-2</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>1.5667438507080082E-2</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>1.561856269836426E-2</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>1.5623331069946291E-2</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>4.1887760162353524E-3</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>4.1594505310058594E-3</c:v>
-                </c:pt>
                 <c:pt idx="85">
-                  <c:v>1.5580654144287109E-2</c:v>
+                  <c:v>1.401209831237793E-2</c:v>
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>1.22377872467041E-2</c:v>
+                  <c:v>1.5580654144287109E-2</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>4.0006637573242188E-3</c:v>
+                  <c:v>1.558637619018555E-2</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>1.599979400634766E-2</c:v>
+                  <c:v>1.5663862228393551E-2</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>1.5622854232788089E-2</c:v>
+                  <c:v>1.562142372131348E-2</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0</c:v>
+                  <c:v>3.1245231628417969E-2</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>1.5630960464477539E-2</c:v>
+                  <c:v>3.124284744262695E-2</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>3.081607818603516E-2</c:v>
+                  <c:v>1.562166213989258E-2</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0</c:v>
+                  <c:v>1.5626192092895511E-2</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>1.5619516372680661E-2</c:v>
+                  <c:v>3.8665294647216797E-2</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0</c:v>
+                  <c:v>1.55789852142334E-2</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0</c:v>
+                  <c:v>1.5624284744262701E-2</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>1.562190055847168E-2</c:v>
+                  <c:v>1.566624641418457E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4765,301 +4769,301 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="99"/>
                 <c:pt idx="0">
-                  <c:v>0.23431944847106931</c:v>
+                  <c:v>0.1093990802764893</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.17179703712463379</c:v>
+                  <c:v>0.1093473434448242</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.1874542236328125</c:v>
+                  <c:v>0.1093502044677734</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.15616726875305181</c:v>
+                  <c:v>0.1093506813049316</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.15769171714782709</c:v>
+                  <c:v>0.10935235023498539</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.1874535083770752</c:v>
+                  <c:v>0.1250112056732178</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.15621280670166021</c:v>
+                  <c:v>0.1093101501464844</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.1093895435333252</c:v>
+                  <c:v>8.041691780090332E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>0.1093943119049072</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.8062534332275391E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.11655378341674801</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9.3729257583618164E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.10934996604919429</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8.0327272415161133E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>0.1093490123748779</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.10934996604919429</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.17187166213989261</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.17183709144592291</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.17187619209289551</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.1093482971191406</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.20476508140563959</c:v>
-                </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.1249330043792725</c:v>
+                  <c:v>9.3689203262329102E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.17183232307434079</c:v>
+                  <c:v>9.4421625137329102E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.14063334465026861</c:v>
+                  <c:v>7.8063249588012695E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.15625190734863281</c:v>
+                  <c:v>9.6967458724975586E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.15772390365600589</c:v>
+                  <c:v>9.3723297119140625E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.1605875492095947</c:v>
+                  <c:v>9.3726634979248047E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.17179536819458011</c:v>
+                  <c:v>0.1217019557952881</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.1562156677246094</c:v>
+                  <c:v>7.8150510787963867E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.1562151908874512</c:v>
+                  <c:v>0.1633913516998291</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.14058756828308111</c:v>
+                  <c:v>9.6013784408569336E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.17187595367431641</c:v>
+                  <c:v>7.8104496002197266E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.1249284744262695</c:v>
+                  <c:v>7.2770595550537109E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.15621304512023931</c:v>
+                  <c:v>9.3769550323486328E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.10930609703063961</c:v>
+                  <c:v>9.3677043914794922E-2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.1606490612030029</c:v>
+                  <c:v>9.229588508605957E-2</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.129364013671875</c:v>
+                  <c:v>9.3774557113647461E-2</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.14601898193359381</c:v>
+                  <c:v>9.3731880187988281E-2</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>9.3726873397827148E-2</c:v>
+                  <c:v>8.846735954284668E-2</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.1614692211151123</c:v>
+                  <c:v>0.14059329032897949</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.1259043216705322</c:v>
+                  <c:v>0.1093473434448242</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.1692802906036377</c:v>
+                  <c:v>0.1235809326171875</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>9.5021247863769531E-2</c:v>
+                  <c:v>0.1117162704467773</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.17333698272705081</c:v>
+                  <c:v>0.1419672966003418</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.12704181671142581</c:v>
+                  <c:v>0.111600399017334</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.15343499183654791</c:v>
+                  <c:v>0.14076447486877439</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>4.6858310699462891E-2</c:v>
+                  <c:v>0.1250147819519043</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.14063119888305661</c:v>
+                  <c:v>0.1252171993255615</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>4.6861648559570313E-2</c:v>
+                  <c:v>9.3770027160644531E-2</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>9.376215934753418E-2</c:v>
+                  <c:v>9.372711181640625E-2</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>6.2445878982543952E-2</c:v>
+                  <c:v>7.9782485961914063E-2</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>9.3726634979248047E-2</c:v>
+                  <c:v>7.810664176940918E-2</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.11081933975219729</c:v>
+                  <c:v>7.8058481216430664E-2</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>7.8107595443725586E-2</c:v>
+                  <c:v>0.124971866607666</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.1093459129333496</c:v>
+                  <c:v>9.8179340362548828E-2</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>7.810664176940918E-2</c:v>
+                  <c:v>7.8112602233886719E-2</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.1093482971191406</c:v>
+                  <c:v>9.373927116394043E-2</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>3.1236171722412109E-2</c:v>
+                  <c:v>9.2825651168823242E-2</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.1106147766113281</c:v>
+                  <c:v>7.8147411346435547E-2</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>6.24847412109375E-2</c:v>
+                  <c:v>0.12502312660217291</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>6.2484264373779297E-2</c:v>
+                  <c:v>8.9928150177001953E-2</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>6.2486171722412109E-2</c:v>
+                  <c:v>9.4938039779663086E-2</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.1249675750732422</c:v>
+                  <c:v>0.10504460334777831</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>7.8102827072143555E-2</c:v>
+                  <c:v>9.3732118606567383E-2</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>4.7460794448852539E-2</c:v>
+                  <c:v>9.3770742416381836E-2</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>9.3727350234985352E-2</c:v>
+                  <c:v>8.033442497253418E-2</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.1093876361846924</c:v>
+                  <c:v>9.3731403350830078E-2</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>3.124237060546875E-2</c:v>
+                  <c:v>7.8110218048095703E-2</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>4.6864986419677727E-2</c:v>
+                  <c:v>9.3773603439331055E-2</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>6.2481403350830078E-2</c:v>
+                  <c:v>8.4460020065307617E-2</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>7.4836015701293945E-2</c:v>
+                  <c:v>7.8099489212036133E-2</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>3.1250953674316413E-2</c:v>
+                  <c:v>9.3684911727905273E-2</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>4.6865224838256843E-2</c:v>
+                  <c:v>7.8108310699462891E-2</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>4.6861171722412109E-2</c:v>
+                  <c:v>7.8106403350830078E-2</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>6.2485933303833008E-2</c:v>
+                  <c:v>9.3771934509277344E-2</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>1.562404632568359E-2</c:v>
+                  <c:v>9.3718767166137695E-2</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>2.8254032135009769E-2</c:v>
+                  <c:v>9.3719244003295898E-2</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.1106870174407959</c:v>
+                  <c:v>7.8103780746459961E-2</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>7.1375608444213867E-2</c:v>
+                  <c:v>0.14284324645996091</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>4.6863079071044922E-2</c:v>
+                  <c:v>9.3675851821899414E-2</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>3.1244039535522461E-2</c:v>
+                  <c:v>7.8121423721313477E-2</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>6.2482357025146477E-2</c:v>
+                  <c:v>7.8099966049194336E-2</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>3.124332427978516E-2</c:v>
+                  <c:v>7.8101396560668945E-2</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>6.2483787536621087E-2</c:v>
+                  <c:v>0.10267090797424321</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>4.6860933303833008E-2</c:v>
+                  <c:v>0.10934972763061521</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>5.115199089050293E-2</c:v>
+                  <c:v>9.367823600769043E-2</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>4.6863079071044922E-2</c:v>
+                  <c:v>0.15621328353881839</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.13331866264343259</c:v>
+                  <c:v>0.14188504219055181</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>6.2487125396728523E-2</c:v>
+                  <c:v>0.1106266975402832</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>3.124237060546875E-2</c:v>
+                  <c:v>9.846949577331543E-2</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>1.5623331069946291E-2</c:v>
+                  <c:v>8.1265449523925781E-2</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>4.6906232833862298E-2</c:v>
+                  <c:v>9.3285560607910156E-2</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>3.1285762786865227E-2</c:v>
+                  <c:v>0.10934782028198239</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>4.6903610229492188E-2</c:v>
+                  <c:v>9.3726158142089844E-2</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>2.0072698593139648E-2</c:v>
+                  <c:v>9.3729019165039063E-2</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>3.2222747802734382E-2</c:v>
+                  <c:v>0.1249265670776367</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>1.5619277954101561E-2</c:v>
+                  <c:v>0.1093485355377197</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>4.686284065246582E-2</c:v>
+                  <c:v>0.14340734481811521</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>3.1196832656860352E-2</c:v>
+                  <c:v>0.22003054618835449</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0.12492489814758299</c:v>
+                  <c:v>0.15626001358032229</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>6.2486171722412109E-2</c:v>
+                  <c:v>0.12497687339782711</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>4.6865701675415039E-2</c:v>
+                  <c:v>0.1042938232421875</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>4.6862363815307617E-2</c:v>
+                  <c:v>7.8148841857910156E-2</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>4.6822071075439453E-2</c:v>
+                  <c:v>9.3676090240478516E-2</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>3.124237060546875E-2</c:v>
+                  <c:v>0.1249251365661621</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5436,301 +5440,301 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="99"/>
                 <c:pt idx="0">
+                  <c:v>1.5618801116943359E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.1200885772705082E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.562142372131348E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.1190156936645511E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.1241655349731449E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.5626668930053711E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.1242609024047852E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.1245231628417969E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.1242609024047852E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.1240701675415039E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.566720008850098E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.5619516372680661E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.1196355819702148E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.1202077865600589E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.557493209838867E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.5619754791259771E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.716971397399902E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.1286239624023438E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.562094688415527E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.1198740005493161E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.55789852142334E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.013492584228516E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
                   <c:v>3.124189376831055E-2</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.1242132186889648E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="23">
+                  <c:v>4.6863555908203118E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.566767692565918E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.5623331069946291E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.1286478042602539E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.5580892562866209E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.124237060546875E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.9143342971801761E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.557540893554688E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.1267642974853523E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2.2893428802490231E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.562118530273438E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.1243085861206051E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>6.2485218048095703E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.1198740005493161E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.1242609024047852E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3.1201601028442379E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.784205436706543E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>3.3859968185424798E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>3.1287431716918952E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.5576601028442379E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3.120064735412598E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.562023162841797E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.5611410140991209E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3.124284744262695E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>3.1243801116943359E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.221036911010742E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.5615463256835939E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>3.1192302703857418E-2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.8869161605834961E-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>3.1243801116943359E-2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.5570163726806641E-2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>6.2527894973754883E-2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>3.1293392181396477E-2</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2.0943880081176761E-2</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.5616655349731451E-2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1.558041572570801E-2</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.562190055847168E-2</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.5623331069946291E-2</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>3.1193733215332031E-2</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.562118530273438E-2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2.0941019058227539E-2</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>3.125E-2</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.562070846557617E-2</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>3.124284744262695E-2</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>3.458714485168457E-2</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.557588577270508E-2</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.562094688415527E-2</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1.562118530273438E-2</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>3.124594688415527E-2</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1.562213897705078E-2</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1.5670537948608398E-2</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>3.1244754791259769E-2</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1.562118530273438E-2</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>3.1240224838256839E-2</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>3.1243085861206051E-2</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>4.6862363815307617E-2</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>3.1239986419677731E-2</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>4.686427116394043E-2</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>2.5927543640136719E-2</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1.5658855438232418E-2</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>3.124284744262695E-2</c:v>
+                </c:pt>
+                <c:pt idx="84">
                   <c:v>3.124332427978516E-2</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.6864748001098633E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4.6898841857910163E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.7626733779907227E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4.6861171722412109E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.562190055847168E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="85">
+                  <c:v>1.56254768371582E-2</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>3.1244039535522461E-2</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>3.1243801116943359E-2</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1.5662908554077148E-2</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>3.124284744262695E-2</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>4.6863794326782227E-2</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>3.124284744262695E-2</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>4.6863794326782227E-2</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>3.1247138977050781E-2</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>4.6943187713623047E-2</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>3.1198978424072269E-2</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>3.1244516372680661E-2</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1.562118530273438E-2</c:v>
+                </c:pt>
+                <c:pt idx="98">
                   <c:v>3.124237060546875E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3.124284744262695E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3.1203031539916989E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>4.0356874465942383E-2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>3.1202554702758789E-2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>3.1242609024047852E-2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>4.7120094299316413E-2</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>3.1240701675415039E-2</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>3.1283140182495117E-2</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>3.1203031539916989E-2</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>5.5269956588745117E-2</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>4.6863794326782227E-2</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>4.686284065246582E-2</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>4.6866416931152337E-2</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>4.6864748001098633E-2</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>4.6867847442626953E-2</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>3.1244039535522461E-2</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>3.1239986419677731E-2</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>3.124547004699707E-2</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>4.4355869293212891E-2</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>3.9647817611694343E-2</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>2.8253793716430661E-2</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>2.82139778137207E-2</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>3.1281471252441413E-2</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>3.2176494598388672E-2</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>4.6863317489624023E-2</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>2.3931741714477539E-2</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>3.1242609024047852E-2</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>1.5619039535522459E-2</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>3.1203031539916989E-2</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>1.566720008850098E-2</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>2.3907899856567379E-2</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>1.562166213989258E-2</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>3.1252145767211907E-2</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>1.5661716461181641E-2</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>3.124690055847168E-2</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>1.562094688415527E-2</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>1.5665054321289059E-2</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>3.1280517578125E-2</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>1.566410064697266E-2</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>3.1244754791259769E-2</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>1.5622377395629879E-2</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>1.562118530273438E-2</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>1.5580654144287109E-2</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>3.1245231628417969E-2</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>1.586461067199707E-2</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>1.562094688415527E-2</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>1.562047004699707E-2</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>3.1244993209838871E-2</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>1.5622377395629879E-2</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>1.562166213989258E-2</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>3.1205892562866211E-2</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>1.562094688415527E-2</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>3.1244516372680661E-2</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>1.562118530273438E-2</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>1.5576601028442379E-2</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>1.5619516372680661E-2</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>1.562047004699707E-2</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>1.5619516372680661E-2</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>1.5664339065551761E-2</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>3.1244754791259769E-2</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>1.2247562408447271E-2</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>1.562166213989258E-2</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>1.5622854232788089E-2</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>1.5619993209838871E-2</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>1.562094688415527E-2</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>1.200127601623535E-2</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>2.0071268081665039E-2</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>1.5622377395629879E-2</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>1.5618801116943359E-2</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>1.5662431716918949E-2</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>1.5622377395629879E-2</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>1.55789852142334E-2</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>1.5580654144287109E-2</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>1.5580892562866209E-2</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>1.5658140182495121E-2</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>1.9916534423828122E-2</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>1.562166213989258E-2</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>1.562070846557617E-2</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>1.5619516372680661E-2</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>1.562142372131348E-2</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>1.562070846557617E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5781,8 +5785,9 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:noFill/>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -9366,8 +9371,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B100" sqref="A1:B100"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9389,7 +9394,7 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>7.1394999027252197</v>
+        <v>1.225201368331909</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -9397,7 +9402,7 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>4.1418170928955078</v>
+        <v>0.67393374443054199</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -9405,7 +9410,7 @@
         <v>16</v>
       </c>
       <c r="B4">
-        <v>3.385420560836792</v>
+        <v>0.6634979248046875</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -9413,7 +9418,7 @@
         <v>25</v>
       </c>
       <c r="B5">
-        <v>1.8066504001617429</v>
+        <v>0.4366309642791748</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -9421,7 +9426,7 @@
         <v>36</v>
       </c>
       <c r="B6">
-        <v>1.7234053611755371</v>
+        <v>0.42383074760437012</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -9429,7 +9434,7 @@
         <v>49</v>
       </c>
       <c r="B7">
-        <v>1.2057139873504641</v>
+        <v>0.28247451782226563</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -9437,7 +9442,7 @@
         <v>64</v>
       </c>
       <c r="B8">
-        <v>1.1482663154602051</v>
+        <v>0.31357789039611822</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -9445,7 +9450,7 @@
         <v>81</v>
       </c>
       <c r="B9">
-        <v>0.75275635719299316</v>
+        <v>0.26561379432678223</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -9453,7 +9458,7 @@
         <v>100</v>
       </c>
       <c r="B10">
-        <v>0.54907727241516113</v>
+        <v>0.24403595924377439</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -9461,7 +9466,7 @@
         <v>121</v>
       </c>
       <c r="B11">
-        <v>0.51766562461853027</v>
+        <v>0.2256584167480469</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -9469,7 +9474,7 @@
         <v>144</v>
       </c>
       <c r="B12">
-        <v>0.60027766227722168</v>
+        <v>0.21869897842407229</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -9477,7 +9482,7 @@
         <v>169</v>
       </c>
       <c r="B13">
-        <v>0.57189774513244629</v>
+        <v>0.21869897842407229</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -9485,7 +9490,7 @@
         <v>196</v>
       </c>
       <c r="B14">
-        <v>0.53197479248046875</v>
+        <v>0.1828961372375488</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -9493,7 +9498,7 @@
         <v>225</v>
       </c>
       <c r="B15">
-        <v>0.59513354301452637</v>
+        <v>0.20312690734863281</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -9501,7 +9506,7 @@
         <v>256</v>
       </c>
       <c r="B16">
-        <v>0.50539708137512207</v>
+        <v>0.21875</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -9509,7 +9514,7 @@
         <v>289</v>
       </c>
       <c r="B17">
-        <v>0.4355316162109375</v>
+        <v>0.2053728103637695</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -9517,7 +9522,7 @@
         <v>324</v>
       </c>
       <c r="B18">
-        <v>0.42726349830627441</v>
+        <v>0.18745565414428711</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -9525,7 +9530,7 @@
         <v>361</v>
       </c>
       <c r="B19">
-        <v>0.40750479698181152</v>
+        <v>0.17187619209289551</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -9533,7 +9538,7 @@
         <v>400</v>
       </c>
       <c r="B20">
-        <v>0.37637996673583979</v>
+        <v>0.1718404293060303</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -9541,7 +9546,7 @@
         <v>441</v>
       </c>
       <c r="B21">
-        <v>0.44600439071655268</v>
+        <v>0.20312595367431641</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -9549,7 +9554,7 @@
         <v>484</v>
       </c>
       <c r="B22">
-        <v>0.37508821487426758</v>
+        <v>0.18813562393188479</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -9557,7 +9562,7 @@
         <v>529</v>
       </c>
       <c r="B23">
-        <v>0.3452141284942627</v>
+        <v>0.17183208465576169</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -9565,7 +9570,7 @@
         <v>576</v>
       </c>
       <c r="B24">
-        <v>0.34590625762939448</v>
+        <v>0.17183446884155271</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -9573,7 +9578,7 @@
         <v>625</v>
       </c>
       <c r="B25">
-        <v>0.3647763729095459</v>
+        <v>0.18741679191589361</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -9581,7 +9586,7 @@
         <v>676</v>
       </c>
       <c r="B26">
-        <v>0.34516096115112299</v>
+        <v>0.21874237060546881</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -9589,7 +9594,7 @@
         <v>729</v>
       </c>
       <c r="B27">
-        <v>0.34530019760131841</v>
+        <v>0.18741059303283689</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -9597,7 +9602,7 @@
         <v>784</v>
       </c>
       <c r="B28">
-        <v>0.34522676467895508</v>
+        <v>0.19658541679382319</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -9605,7 +9610,7 @@
         <v>841</v>
       </c>
       <c r="B29">
-        <v>0.38035249710083008</v>
+        <v>0.17179083824157709</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -9613,7 +9618,7 @@
         <v>900</v>
       </c>
       <c r="B30">
-        <v>0.34370875358581537</v>
+        <v>0.20426201820373541</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -9621,7 +9626,7 @@
         <v>961</v>
       </c>
       <c r="B31">
-        <v>0.33672571182250982</v>
+        <v>0.18749785423278811</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -9629,7 +9634,7 @@
         <v>1024</v>
       </c>
       <c r="B32">
-        <v>0.32804989814758301</v>
+        <v>0.20082378387451169</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -9637,7 +9642,7 @@
         <v>1089</v>
       </c>
       <c r="B33">
-        <v>0.37494802474975591</v>
+        <v>0.2073409557342529</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -9645,7 +9650,7 @@
         <v>1156</v>
       </c>
       <c r="B34">
-        <v>0.32801032066345209</v>
+        <v>0.2342946529388428</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -9653,7 +9658,7 @@
         <v>1225</v>
       </c>
       <c r="B35">
-        <v>0.35305356979370123</v>
+        <v>0.1874580383300781</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -9661,7 +9666,7 @@
         <v>1296</v>
       </c>
       <c r="B36">
-        <v>0.33651614189147949</v>
+        <v>0.18976378440856931</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -9669,7 +9674,7 @@
         <v>1369</v>
       </c>
       <c r="B37">
-        <v>0.41309762001037598</v>
+        <v>0.22175693511962891</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -9677,7 +9682,7 @@
         <v>1444</v>
       </c>
       <c r="B38">
-        <v>0.32805013656616211</v>
+        <v>0.3905341625213623</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -9685,7 +9690,7 @@
         <v>1521</v>
       </c>
       <c r="B39">
-        <v>0.32804775238037109</v>
+        <v>0.35928916931152338</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -9693,7 +9698,7 @@
         <v>1600</v>
       </c>
       <c r="B40">
-        <v>0.32805061340332031</v>
+        <v>0.29680538177490229</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -9701,7 +9706,7 @@
         <v>1681</v>
       </c>
       <c r="B41">
-        <v>0.34362339973449713</v>
+        <v>0.29680252075195313</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -9709,7 +9714,7 @@
         <v>1764</v>
       </c>
       <c r="B42">
-        <v>0.37487530708312988</v>
+        <v>0.32809114456176758</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -9717,7 +9722,7 @@
         <v>1849</v>
       </c>
       <c r="B43">
-        <v>0.32558894157409668</v>
+        <v>0.35982370376586909</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -9725,7 +9730,7 @@
         <v>1936</v>
       </c>
       <c r="B44">
-        <v>0.32239937782287598</v>
+        <v>0.28118276596069341</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -9733,7 +9738,7 @@
         <v>2025</v>
       </c>
       <c r="B45">
-        <v>0.3259422779083252</v>
+        <v>0.20532894134521479</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -9741,7 +9746,7 @@
         <v>2116</v>
       </c>
       <c r="B46">
-        <v>0.39197850227355963</v>
+        <v>0.20311903953552249</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -9749,7 +9754,7 @@
         <v>2209</v>
       </c>
       <c r="B47">
-        <v>0.31723833084106451</v>
+        <v>0.24994587898254389</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -9757,7 +9762,7 @@
         <v>2304</v>
       </c>
       <c r="B48">
-        <v>0.29676318168640142</v>
+        <v>0.2209124565124512</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -9765,7 +9770,7 @@
         <v>2401</v>
       </c>
       <c r="B49">
-        <v>0.28114175796508789</v>
+        <v>0.29169201850891108</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -9773,7 +9778,7 @@
         <v>2500</v>
       </c>
       <c r="B50">
-        <v>0.31379413604736328</v>
+        <v>0.24998807907104489</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -9781,7 +9786,7 @@
         <v>2601</v>
       </c>
       <c r="B51">
-        <v>0.36077713966369629</v>
+        <v>0.25720310211181641</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
@@ -9789,7 +9794,7 @@
         <v>2704</v>
       </c>
       <c r="B52">
-        <v>0.31394338607788091</v>
+        <v>0.22962689399719241</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
@@ -9797,7 +9802,7 @@
         <v>2809</v>
       </c>
       <c r="B53">
-        <v>0.28362703323364258</v>
+        <v>0.21874213218688959</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -9805,7 +9810,7 @@
         <v>2916</v>
       </c>
       <c r="B54">
-        <v>0.32804512977600098</v>
+        <v>0.23427653312683111</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
@@ -9813,7 +9818,7 @@
         <v>3025</v>
       </c>
       <c r="B55">
-        <v>0.37491083145141602</v>
+        <v>0.22680020332336431</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
@@ -9821,7 +9826,7 @@
         <v>3136</v>
       </c>
       <c r="B56">
-        <v>0.31352424621582031</v>
+        <v>0.23435759544372561</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
@@ -9829,7 +9834,7 @@
         <v>3249</v>
       </c>
       <c r="B57">
-        <v>0.31801342964172358</v>
+        <v>0.32805490493774409</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
@@ -9837,7 +9842,7 @@
         <v>3364</v>
       </c>
       <c r="B58">
-        <v>0.31360363960266108</v>
+        <v>0.35928010940551758</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
@@ -9845,7 +9850,7 @@
         <v>3481</v>
       </c>
       <c r="B59">
-        <v>0.39213371276855469</v>
+        <v>0.2200515270233154</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
@@ -9853,7 +9858,7 @@
         <v>3600</v>
       </c>
       <c r="B60">
-        <v>0.32173562049865723</v>
+        <v>0.28249549865722662</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
@@ -9861,7 +9866,7 @@
         <v>3721</v>
       </c>
       <c r="B61">
-        <v>0.3280022144317627</v>
+        <v>0.24995970726013181</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
@@ -9869,7 +9874,7 @@
         <v>3844</v>
       </c>
       <c r="B62">
-        <v>0.32977128028869629</v>
+        <v>0.2499434947967529</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
@@ -9877,7 +9882,7 @@
         <v>3969</v>
       </c>
       <c r="B63">
-        <v>0.3296043872833252</v>
+        <v>0.25221371650695801</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
@@ -9885,7 +9890,7 @@
         <v>4096</v>
       </c>
       <c r="B64">
-        <v>0.41708683967590332</v>
+        <v>0.29827380180358892</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
@@ -9893,7 +9898,7 @@
         <v>4225</v>
       </c>
       <c r="B65">
-        <v>0.35108327865600591</v>
+        <v>0.24989533424377439</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
@@ -9901,7 +9906,7 @@
         <v>4356</v>
       </c>
       <c r="B66">
-        <v>0.34051203727722168</v>
+        <v>0.24055600166320801</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
@@ -9909,7 +9914,7 @@
         <v>4489</v>
       </c>
       <c r="B67">
-        <v>0.34370779991149902</v>
+        <v>0.25238204002380371</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
@@ -9917,7 +9922,7 @@
         <v>4624</v>
       </c>
       <c r="B68">
-        <v>0.40878701210021973</v>
+        <v>0.32005929946899409</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
@@ -9925,7 +9930,7 @@
         <v>4761</v>
       </c>
       <c r="B69">
-        <v>0.35674571990966802</v>
+        <v>0.26560592651367188</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
@@ -9933,7 +9938,7 @@
         <v>4900</v>
       </c>
       <c r="B70">
-        <v>0.34905242919921881</v>
+        <v>0.26448583602905268</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
@@ -9941,7 +9946,7 @@
         <v>5041</v>
       </c>
       <c r="B71">
-        <v>0.36089372634887701</v>
+        <v>0.39207077026367188</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
@@ -9949,7 +9954,7 @@
         <v>5184</v>
       </c>
       <c r="B72">
-        <v>0.42177343368530268</v>
+        <v>0.31465005874633789</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
@@ -9957,7 +9962,7 @@
         <v>5329</v>
       </c>
       <c r="B73">
-        <v>0.37487173080444341</v>
+        <v>0.26804018020629877</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
@@ -9965,7 +9970,7 @@
         <v>5476</v>
       </c>
       <c r="B74">
-        <v>0.4033050537109375</v>
+        <v>0.28113174438476563</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
@@ -9973,7 +9978,7 @@
         <v>5625</v>
       </c>
       <c r="B75">
-        <v>0.39905357360839838</v>
+        <v>0.2834630012512207</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
@@ -9981,7 +9986,7 @@
         <v>5776</v>
       </c>
       <c r="B76">
-        <v>0.49336433410644531</v>
+        <v>0.34196615219116211</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
@@ -9989,7 +9994,7 @@
         <v>5929</v>
       </c>
       <c r="B77">
-        <v>0.41651034355163569</v>
+        <v>0.28450465202331537</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
@@ -9997,7 +10002,7 @@
         <v>6084</v>
       </c>
       <c r="B78">
-        <v>0.41715264320373541</v>
+        <v>0.28254270553588873</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
@@ -10005,7 +10010,7 @@
         <v>6241</v>
       </c>
       <c r="B79">
-        <v>0.40367317199707031</v>
+        <v>0.27449274063110352</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
@@ -10013,7 +10018,7 @@
         <v>6400</v>
       </c>
       <c r="B80">
-        <v>0.53664994239807129</v>
+        <v>0.48653721809387213</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
@@ -10021,7 +10026,7 @@
         <v>6561</v>
       </c>
       <c r="B81">
-        <v>0.51721882820129395</v>
+        <v>0.39391875267028809</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
@@ -10029,7 +10034,7 @@
         <v>6724</v>
       </c>
       <c r="B82">
-        <v>0.43803167343139648</v>
+        <v>0.56198716163635254</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
@@ -10037,7 +10042,7 @@
         <v>6889</v>
       </c>
       <c r="B83">
-        <v>0.44282627105712891</v>
+        <v>0.43938207626342768</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
@@ -10045,7 +10050,7 @@
         <v>7056</v>
       </c>
       <c r="B84">
-        <v>0.48582029342651373</v>
+        <v>0.46030402183532709</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
@@ -10053,7 +10058,7 @@
         <v>7225</v>
       </c>
       <c r="B85">
-        <v>0.43454504013061518</v>
+        <v>0.38660073280334473</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
@@ -10061,7 +10066,7 @@
         <v>7396</v>
       </c>
       <c r="B86">
-        <v>0.48543787002563482</v>
+        <v>0.39058303833007813</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
@@ -10069,7 +10074,7 @@
         <v>7569</v>
       </c>
       <c r="B87">
-        <v>0.50144267082214355</v>
+        <v>0.44087123870849609</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
@@ -10077,7 +10082,7 @@
         <v>7744</v>
       </c>
       <c r="B88">
-        <v>0.47014594078063959</v>
+        <v>0.5415036678314209</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
@@ -10085,7 +10090,7 @@
         <v>7921</v>
       </c>
       <c r="B89">
-        <v>0.44219684600830078</v>
+        <v>0.35193538665771479</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
@@ -10093,7 +10098,7 @@
         <v>8100</v>
       </c>
       <c r="B90">
-        <v>0.44648122787475591</v>
+        <v>0.40851235389709473</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
@@ -10101,7 +10106,7 @@
         <v>8281</v>
       </c>
       <c r="B91">
-        <v>0.48426270484924322</v>
+        <v>0.48754668235778809</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
@@ -10109,7 +10114,7 @@
         <v>8464</v>
       </c>
       <c r="B92">
-        <v>0.42174005508422852</v>
+        <v>0.4387359619140625</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
@@ -10117,7 +10122,7 @@
         <v>8649</v>
       </c>
       <c r="B93">
-        <v>0.40311408042907709</v>
+        <v>0.54847192764282227</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
@@ -10125,7 +10130,7 @@
         <v>8836</v>
       </c>
       <c r="B94">
-        <v>0.42333245277404791</v>
+        <v>0.70460104942321777</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
@@ -10133,7 +10138,7 @@
         <v>9025</v>
       </c>
       <c r="B95">
-        <v>1.2600922584533689</v>
+        <v>0.64287948608398438</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
@@ -10141,7 +10146,7 @@
         <v>9216</v>
       </c>
       <c r="B96">
-        <v>0.52154803276062012</v>
+        <v>0.4860072135925293</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
@@ -10149,7 +10154,7 @@
         <v>9409</v>
       </c>
       <c r="B97">
-        <v>0.46213221549987787</v>
+        <v>0.48687410354614258</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
@@ -10157,7 +10162,7 @@
         <v>9604</v>
       </c>
       <c r="B98">
-        <v>0.55223417282104492</v>
+        <v>0.43868613243103027</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
@@ -10165,7 +10170,7 @@
         <v>9801</v>
       </c>
       <c r="B99">
-        <v>0.43973231315612787</v>
+        <v>0.40756392478942871</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
@@ -10173,7 +10178,7 @@
         <v>10000</v>
       </c>
       <c r="B100">
-        <v>0.45460724830627441</v>
+        <v>0.40855574607849121</v>
       </c>
     </row>
   </sheetData>
@@ -10186,8 +10191,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B100"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B100" sqref="A1:B100"/>
+    <sheetView topLeftCell="A80" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10209,7 +10214,7 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>5.5561304092407227E-2</v>
+        <v>1.5580654144287109E-2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -10217,7 +10222,7 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>3.1283378601074219E-2</v>
+        <v>1.5623569488525391E-2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -10225,7 +10230,7 @@
         <v>16</v>
       </c>
       <c r="B4">
-        <v>3.1241655349731449E-2</v>
+        <v>1.5619277954101561E-2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -10233,7 +10238,7 @@
         <v>25</v>
       </c>
       <c r="B5">
-        <v>3.1285762786865227E-2</v>
+        <v>1.5674114227294918E-2</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -10241,7 +10246,7 @@
         <v>36</v>
       </c>
       <c r="B6">
-        <v>3.1239748001098629E-2</v>
+        <v>1.561832427978516E-2</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -10249,7 +10254,7 @@
         <v>49</v>
       </c>
       <c r="B7">
-        <v>1.5580654144287109E-2</v>
+        <v>1.5619993209838871E-2</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -10257,7 +10262,7 @@
         <v>64</v>
       </c>
       <c r="B8">
-        <v>3.1244993209838871E-2</v>
+        <v>1.5659332275390622E-2</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -10265,7 +10270,7 @@
         <v>81</v>
       </c>
       <c r="B9">
-        <v>1.5623092651367189E-2</v>
+        <v>1.562070846557617E-2</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -10273,7 +10278,7 @@
         <v>100</v>
       </c>
       <c r="B10">
-        <v>1.562404632568359E-2</v>
+        <v>1.5619277954101561E-2</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -10281,7 +10286,7 @@
         <v>121</v>
       </c>
       <c r="B11">
-        <v>1.2151956558227541E-2</v>
+        <v>1.5666007995605469E-2</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -10289,7 +10294,7 @@
         <v>144</v>
       </c>
       <c r="B12">
-        <v>3.1244277954101559E-2</v>
+        <v>3.2566070556640618E-2</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -10297,7 +10302,7 @@
         <v>169</v>
       </c>
       <c r="B13">
-        <v>3.1240463256835941E-2</v>
+        <v>1.5576839447021479E-2</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -10305,7 +10310,7 @@
         <v>196</v>
       </c>
       <c r="B14">
-        <v>1.6282320022583011E-2</v>
+        <v>1.5619039535522459E-2</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -10313,7 +10318,7 @@
         <v>225</v>
       </c>
       <c r="B15">
-        <v>1.5624284744262701E-2</v>
+        <v>1.562047004699707E-2</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -10321,7 +10326,7 @@
         <v>256</v>
       </c>
       <c r="B16">
-        <v>3.1243085861206051E-2</v>
+        <v>1.561641693115234E-2</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -10329,7 +10334,7 @@
         <v>289</v>
       </c>
       <c r="B17">
-        <v>1.5657663345336911E-2</v>
+        <v>1.562094688415527E-2</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -10337,7 +10342,7 @@
         <v>324</v>
       </c>
       <c r="B18">
-        <v>1.5622377395629879E-2</v>
+        <v>1.5665769577026371E-2</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -10345,7 +10350,7 @@
         <v>361</v>
       </c>
       <c r="B19">
-        <v>1.562142372131348E-2</v>
+        <v>1.5625715255737301E-2</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -10353,7 +10358,7 @@
         <v>400</v>
       </c>
       <c r="B20">
-        <v>3.124284744262695E-2</v>
+        <v>1.5622615814208979E-2</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -10361,7 +10366,7 @@
         <v>441</v>
       </c>
       <c r="B21">
-        <v>3.1242609024047852E-2</v>
+        <v>1.5622377395629879E-2</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -10369,7 +10374,7 @@
         <v>484</v>
       </c>
       <c r="B22">
-        <v>2.803897857666016E-2</v>
+        <v>1.562070846557617E-2</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -10377,7 +10382,7 @@
         <v>529</v>
       </c>
       <c r="B23">
-        <v>3.124284744262695E-2</v>
+        <v>1.56245231628418E-2</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -10385,7 +10390,7 @@
         <v>576</v>
       </c>
       <c r="B24">
-        <v>3.1243085861206051E-2</v>
+        <v>1.562190055847168E-2</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -10393,7 +10398,7 @@
         <v>625</v>
       </c>
       <c r="B25">
-        <v>3.1243085861206051E-2</v>
+        <v>4.2005777359008789E-2</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -10401,7 +10406,7 @@
         <v>676</v>
       </c>
       <c r="B26">
-        <v>3.124547004699707E-2</v>
+        <v>1.557826995849609E-2</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -10409,7 +10414,7 @@
         <v>729</v>
       </c>
       <c r="B27">
-        <v>3.1243085861206051E-2</v>
+        <v>1.5673160552978519E-2</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -10417,7 +10422,7 @@
         <v>784</v>
       </c>
       <c r="B28">
-        <v>1.5619277954101561E-2</v>
+        <v>1.391720771789551E-2</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -10425,7 +10430,7 @@
         <v>841</v>
       </c>
       <c r="B29">
-        <v>3.1243085861206051E-2</v>
+        <v>1.562070846557617E-2</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -10433,7 +10438,7 @@
         <v>900</v>
       </c>
       <c r="B30">
-        <v>1.5623092651367189E-2</v>
+        <v>1.562380790710449E-2</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -10441,7 +10446,7 @@
         <v>961</v>
       </c>
       <c r="B31">
-        <v>3.1202316284179691E-2</v>
+        <v>1.5622854232788089E-2</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -10449,7 +10454,7 @@
         <v>1024</v>
       </c>
       <c r="B32">
-        <v>3.1242609024047852E-2</v>
+        <v>1.557540893554688E-2</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -10457,7 +10462,7 @@
         <v>1089</v>
       </c>
       <c r="B33">
-        <v>1.5622854232788089E-2</v>
+        <v>4.6863317489624023E-2</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -10465,7 +10470,7 @@
         <v>1156</v>
       </c>
       <c r="B34">
-        <v>1.5619277954101561E-2</v>
+        <v>1.5619993209838871E-2</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -10473,7 +10478,7 @@
         <v>1225</v>
       </c>
       <c r="B35">
-        <v>3.1243562698364261E-2</v>
+        <v>1.5619993209838871E-2</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -10481,7 +10486,7 @@
         <v>1296</v>
       </c>
       <c r="B36">
-        <v>1.562118530273438E-2</v>
+        <v>1.557826995849609E-2</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -10489,7 +10494,7 @@
         <v>1369</v>
       </c>
       <c r="B37">
-        <v>3.1240224838256839E-2</v>
+        <v>1.556801795959473E-2</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -10505,7 +10510,7 @@
         <v>1521</v>
       </c>
       <c r="B39">
-        <v>1.5622377395629879E-2</v>
+        <v>3.1242609024047852E-2</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -10513,7 +10518,7 @@
         <v>1600</v>
       </c>
       <c r="B40">
-        <v>1.5618085861206049E-2</v>
+        <v>3.1294107437133789E-2</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -10521,7 +10526,7 @@
         <v>1681</v>
       </c>
       <c r="B41">
-        <v>1.562070846557617E-2</v>
+        <v>3.124332427978516E-2</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -10529,7 +10534,7 @@
         <v>1764</v>
       </c>
       <c r="B42">
-        <v>1.562190055847168E-2</v>
+        <v>1.5576839447021479E-2</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -10537,7 +10542,7 @@
         <v>1849</v>
       </c>
       <c r="B43">
-        <v>1.558232307434082E-2</v>
+        <v>6.2484979629516602E-2</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -10545,7 +10550,7 @@
         <v>1936</v>
       </c>
       <c r="B44">
-        <v>0</v>
+        <v>1.55794620513916E-2</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -10553,7 +10558,7 @@
         <v>2025</v>
       </c>
       <c r="B45">
-        <v>1.562213897705078E-2</v>
+        <v>1.562047004699707E-2</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -10561,7 +10566,7 @@
         <v>2116</v>
       </c>
       <c r="B46">
-        <v>1.5661001205444339E-2</v>
+        <v>1.5581607818603521E-2</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -10569,7 +10574,7 @@
         <v>2209</v>
       </c>
       <c r="B47">
-        <v>1.2262344360351561E-2</v>
+        <v>1.562809944152832E-2</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -10577,7 +10582,7 @@
         <v>2304</v>
       </c>
       <c r="B48">
-        <v>1.562213897705078E-2</v>
+        <v>1.563262939453125E-2</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -10585,7 +10590,7 @@
         <v>2401</v>
       </c>
       <c r="B49">
-        <v>1.562142372131348E-2</v>
+        <v>2.317357063293457E-2</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -10593,7 +10598,7 @@
         <v>2500</v>
       </c>
       <c r="B50">
-        <v>1.562166213989258E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -10601,7 +10606,7 @@
         <v>2601</v>
       </c>
       <c r="B51">
-        <v>1.562166213989258E-2</v>
+        <v>1.561689376831055E-2</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
@@ -10609,7 +10614,7 @@
         <v>2704</v>
       </c>
       <c r="B52">
-        <v>1.5619754791259771E-2</v>
+        <v>1.560521125793457E-2</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
@@ -10617,7 +10622,7 @@
         <v>2809</v>
       </c>
       <c r="B53">
-        <v>1.5670061111450199E-2</v>
+        <v>1.562213897705078E-2</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -10625,7 +10630,7 @@
         <v>2916</v>
       </c>
       <c r="B54">
-        <v>3.1290769577026367E-2</v>
+        <v>1.5622377395629879E-2</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
@@ -10633,7 +10638,7 @@
         <v>3025</v>
       </c>
       <c r="B55">
-        <v>1.562118530273438E-2</v>
+        <v>1.5619993209838871E-2</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
@@ -10641,7 +10646,7 @@
         <v>3136</v>
       </c>
       <c r="B56">
-        <v>1.5622377395629879E-2</v>
+        <v>1.562118530273438E-2</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
@@ -10649,7 +10654,7 @@
         <v>3249</v>
       </c>
       <c r="B57">
-        <v>0</v>
+        <v>1.5573263168334959E-2</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
@@ -10657,7 +10662,7 @@
         <v>3364</v>
       </c>
       <c r="B58">
-        <v>1.5622377395629879E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
@@ -10665,7 +10670,7 @@
         <v>3481</v>
       </c>
       <c r="B59">
-        <v>3.1242132186889648E-2</v>
+        <v>1.5623092651367189E-2</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
@@ -10673,7 +10678,7 @@
         <v>3600</v>
       </c>
       <c r="B60">
-        <v>8.0060958862304688E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
@@ -10681,7 +10686,7 @@
         <v>3721</v>
       </c>
       <c r="B61">
-        <v>1.562380790710449E-2</v>
+        <v>1.5648603439331051E-2</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
@@ -10689,7 +10694,7 @@
         <v>3844</v>
       </c>
       <c r="B62">
-        <v>3.1194925308227539E-2</v>
+        <v>1.562047004699707E-2</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
@@ -10697,7 +10702,7 @@
         <v>3969</v>
       </c>
       <c r="B63">
-        <v>1.562166213989258E-2</v>
+        <v>1.5625715255737301E-2</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
@@ -10705,7 +10710,7 @@
         <v>4096</v>
       </c>
       <c r="B64">
-        <v>0</v>
+        <v>1.5581130981445311E-2</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
@@ -10713,7 +10718,7 @@
         <v>4225</v>
       </c>
       <c r="B65">
-        <v>1.5622377395629879E-2</v>
+        <v>1.562118530273438E-2</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
@@ -10721,7 +10726,7 @@
         <v>4356</v>
       </c>
       <c r="B66">
-        <v>1.204299926757812E-2</v>
+        <v>1.561379432678223E-2</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
@@ -10729,7 +10734,7 @@
         <v>4489</v>
       </c>
       <c r="B67">
-        <v>0</v>
+        <v>1.562905311584473E-2</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
@@ -10737,7 +10742,7 @@
         <v>4624</v>
       </c>
       <c r="B68">
-        <v>0</v>
+        <v>9.2382431030273438E-3</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
@@ -10745,7 +10750,7 @@
         <v>4761</v>
       </c>
       <c r="B69">
-        <v>0</v>
+        <v>1.5627861022949219E-2</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
@@ -10753,7 +10758,7 @@
         <v>4900</v>
       </c>
       <c r="B70">
-        <v>0</v>
+        <v>1.5623331069946291E-2</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
@@ -10761,7 +10766,7 @@
         <v>5041</v>
       </c>
       <c r="B71">
-        <v>0</v>
+        <v>1.562809944152832E-2</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
@@ -10769,7 +10774,7 @@
         <v>5184</v>
       </c>
       <c r="B72">
-        <v>2.0031929016113281E-2</v>
+        <v>1.5675783157348629E-2</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
@@ -10777,7 +10782,7 @@
         <v>5329</v>
       </c>
       <c r="B73">
-        <v>3.1239748001098629E-2</v>
+        <v>1.5674114227294918E-2</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
@@ -10785,7 +10790,7 @@
         <v>5476</v>
       </c>
       <c r="B74">
-        <v>1.557493209838867E-2</v>
+        <v>1.562070846557617E-2</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
@@ -10793,7 +10798,7 @@
         <v>5625</v>
       </c>
       <c r="B75">
-        <v>1.557135581970215E-2</v>
+        <v>1.5631198883056641E-2</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
@@ -10801,7 +10806,7 @@
         <v>5776</v>
       </c>
       <c r="B76">
-        <v>1.5619993209838871E-2</v>
+        <v>1.5653133392333981E-2</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
@@ -10809,7 +10814,7 @@
         <v>5929</v>
       </c>
       <c r="B77">
-        <v>1.5622615814208979E-2</v>
+        <v>1.5630722045898441E-2</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
@@ -10817,7 +10822,7 @@
         <v>6084</v>
       </c>
       <c r="B78">
-        <v>1.562023162841797E-2</v>
+        <v>1.5619993209838871E-2</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
@@ -10825,7 +10830,7 @@
         <v>6241</v>
       </c>
       <c r="B79">
-        <v>1.5624284744262701E-2</v>
+        <v>3.1191349029541019E-2</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
@@ -10833,7 +10838,7 @@
         <v>6400</v>
       </c>
       <c r="B80">
-        <v>1.5624284744262701E-2</v>
+        <v>1.562380790710449E-2</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
@@ -10841,7 +10846,7 @@
         <v>6561</v>
       </c>
       <c r="B81">
-        <v>1.5667438507080082E-2</v>
+        <v>1.562166213989258E-2</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
@@ -10849,7 +10854,7 @@
         <v>6724</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>1.562142372131348E-2</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
@@ -10857,7 +10862,7 @@
         <v>6889</v>
       </c>
       <c r="B83">
-        <v>1.561856269836426E-2</v>
+        <v>1.5672445297241211E-2</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
@@ -10865,7 +10870,7 @@
         <v>7056</v>
       </c>
       <c r="B84">
-        <v>1.5623331069946291E-2</v>
+        <v>1.5619277954101561E-2</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
@@ -10873,7 +10878,7 @@
         <v>7225</v>
       </c>
       <c r="B85">
-        <v>4.1887760162353524E-3</v>
+        <v>1.562094688415527E-2</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
@@ -10881,7 +10886,7 @@
         <v>7396</v>
       </c>
       <c r="B86">
-        <v>4.1594505310058594E-3</v>
+        <v>1.562380790710449E-2</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
@@ -10889,7 +10894,7 @@
         <v>7569</v>
       </c>
       <c r="B87">
-        <v>1.5580654144287109E-2</v>
+        <v>1.401209831237793E-2</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
@@ -10905,7 +10910,7 @@
         <v>7921</v>
       </c>
       <c r="B89">
-        <v>1.22377872467041E-2</v>
+        <v>1.5580654144287109E-2</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
@@ -10913,7 +10918,7 @@
         <v>8100</v>
       </c>
       <c r="B90">
-        <v>4.0006637573242188E-3</v>
+        <v>1.558637619018555E-2</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
@@ -10921,7 +10926,7 @@
         <v>8281</v>
       </c>
       <c r="B91">
-        <v>1.599979400634766E-2</v>
+        <v>1.5663862228393551E-2</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
@@ -10929,7 +10934,7 @@
         <v>8464</v>
       </c>
       <c r="B92">
-        <v>1.5622854232788089E-2</v>
+        <v>1.562142372131348E-2</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
@@ -10937,7 +10942,7 @@
         <v>8649</v>
       </c>
       <c r="B93">
-        <v>0</v>
+        <v>3.1245231628417969E-2</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
@@ -10945,7 +10950,7 @@
         <v>8836</v>
       </c>
       <c r="B94">
-        <v>1.5630960464477539E-2</v>
+        <v>3.124284744262695E-2</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
@@ -10953,7 +10958,7 @@
         <v>9025</v>
       </c>
       <c r="B95">
-        <v>3.081607818603516E-2</v>
+        <v>1.562166213989258E-2</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
@@ -10961,7 +10966,7 @@
         <v>9216</v>
       </c>
       <c r="B96">
-        <v>0</v>
+        <v>1.5626192092895511E-2</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
@@ -10969,7 +10974,7 @@
         <v>9409</v>
       </c>
       <c r="B97">
-        <v>1.5619516372680661E-2</v>
+        <v>3.8665294647216797E-2</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
@@ -10977,7 +10982,7 @@
         <v>9604</v>
       </c>
       <c r="B98">
-        <v>0</v>
+        <v>1.55789852142334E-2</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
@@ -10985,7 +10990,7 @@
         <v>9801</v>
       </c>
       <c r="B99">
-        <v>0</v>
+        <v>1.5624284744262701E-2</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
@@ -10993,7 +10998,7 @@
         <v>10000</v>
       </c>
       <c r="B100">
-        <v>1.562190055847168E-2</v>
+        <v>1.566624641418457E-2</v>
       </c>
     </row>
   </sheetData>
@@ -11006,8 +11011,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B100"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B100" sqref="A1:B100"/>
+    <sheetView topLeftCell="A80" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11029,7 +11034,7 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>0.23431944847106931</v>
+        <v>0.1093990802764893</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -11037,7 +11042,7 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>0.17179703712463379</v>
+        <v>0.1093473434448242</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -11045,7 +11050,7 @@
         <v>16</v>
       </c>
       <c r="B4">
-        <v>0.1874542236328125</v>
+        <v>0.1093502044677734</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -11053,7 +11058,7 @@
         <v>25</v>
       </c>
       <c r="B5">
-        <v>0.15616726875305181</v>
+        <v>0.1093506813049316</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -11061,7 +11066,7 @@
         <v>36</v>
       </c>
       <c r="B6">
-        <v>0.15769171714782709</v>
+        <v>0.10935235023498539</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -11069,7 +11074,7 @@
         <v>49</v>
       </c>
       <c r="B7">
-        <v>0.1874535083770752</v>
+        <v>0.1250112056732178</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -11077,7 +11082,7 @@
         <v>64</v>
       </c>
       <c r="B8">
-        <v>0.15621280670166021</v>
+        <v>0.1093101501464844</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -11085,7 +11090,7 @@
         <v>81</v>
       </c>
       <c r="B9">
-        <v>0.1093895435333252</v>
+        <v>8.041691780090332E-2</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -11093,7 +11098,7 @@
         <v>100</v>
       </c>
       <c r="B10">
-        <v>0.1093490123748779</v>
+        <v>0.1093943119049072</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -11101,7 +11106,7 @@
         <v>121</v>
       </c>
       <c r="B11">
-        <v>0.10934996604919429</v>
+        <v>7.8062534332275391E-2</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -11109,7 +11114,7 @@
         <v>144</v>
       </c>
       <c r="B12">
-        <v>0.17187166213989261</v>
+        <v>0.11655378341674801</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -11117,7 +11122,7 @@
         <v>169</v>
       </c>
       <c r="B13">
-        <v>0.17183709144592291</v>
+        <v>9.3729257583618164E-2</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -11125,7 +11130,7 @@
         <v>196</v>
       </c>
       <c r="B14">
-        <v>0.17187619209289551</v>
+        <v>0.10934996604919429</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -11133,7 +11138,7 @@
         <v>225</v>
       </c>
       <c r="B15">
-        <v>0.1093482971191406</v>
+        <v>8.0327272415161133E-2</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -11141,7 +11146,7 @@
         <v>256</v>
       </c>
       <c r="B16">
-        <v>0.20476508140563959</v>
+        <v>0.1093490123748779</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -11149,7 +11154,7 @@
         <v>289</v>
       </c>
       <c r="B17">
-        <v>0.1249330043792725</v>
+        <v>9.3689203262329102E-2</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -11157,7 +11162,7 @@
         <v>324</v>
       </c>
       <c r="B18">
-        <v>0.17183232307434079</v>
+        <v>9.4421625137329102E-2</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -11165,7 +11170,7 @@
         <v>361</v>
       </c>
       <c r="B19">
-        <v>0.14063334465026861</v>
+        <v>7.8063249588012695E-2</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -11173,7 +11178,7 @@
         <v>400</v>
       </c>
       <c r="B20">
-        <v>0.15625190734863281</v>
+        <v>9.6967458724975586E-2</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -11181,7 +11186,7 @@
         <v>441</v>
       </c>
       <c r="B21">
-        <v>0.15772390365600589</v>
+        <v>9.3723297119140625E-2</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -11189,7 +11194,7 @@
         <v>484</v>
       </c>
       <c r="B22">
-        <v>0.1605875492095947</v>
+        <v>9.3726634979248047E-2</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -11197,7 +11202,7 @@
         <v>529</v>
       </c>
       <c r="B23">
-        <v>0.17179536819458011</v>
+        <v>0.1217019557952881</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -11205,7 +11210,7 @@
         <v>576</v>
       </c>
       <c r="B24">
-        <v>0.1562156677246094</v>
+        <v>7.8150510787963867E-2</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -11213,7 +11218,7 @@
         <v>625</v>
       </c>
       <c r="B25">
-        <v>0.1562151908874512</v>
+        <v>0.1633913516998291</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -11221,7 +11226,7 @@
         <v>676</v>
       </c>
       <c r="B26">
-        <v>0.14058756828308111</v>
+        <v>9.6013784408569336E-2</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -11229,7 +11234,7 @@
         <v>729</v>
       </c>
       <c r="B27">
-        <v>0.17187595367431641</v>
+        <v>7.8104496002197266E-2</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -11237,7 +11242,7 @@
         <v>784</v>
       </c>
       <c r="B28">
-        <v>0.1249284744262695</v>
+        <v>7.2770595550537109E-2</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -11245,7 +11250,7 @@
         <v>841</v>
       </c>
       <c r="B29">
-        <v>0.15621304512023931</v>
+        <v>9.3769550323486328E-2</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -11253,7 +11258,7 @@
         <v>900</v>
       </c>
       <c r="B30">
-        <v>0.10930609703063961</v>
+        <v>9.3677043914794922E-2</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -11261,7 +11266,7 @@
         <v>961</v>
       </c>
       <c r="B31">
-        <v>0.1606490612030029</v>
+        <v>9.229588508605957E-2</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -11269,7 +11274,7 @@
         <v>1024</v>
       </c>
       <c r="B32">
-        <v>0.129364013671875</v>
+        <v>9.3774557113647461E-2</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -11277,7 +11282,7 @@
         <v>1089</v>
       </c>
       <c r="B33">
-        <v>0.14601898193359381</v>
+        <v>9.3731880187988281E-2</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -11285,7 +11290,7 @@
         <v>1156</v>
       </c>
       <c r="B34">
-        <v>9.3726873397827148E-2</v>
+        <v>8.846735954284668E-2</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -11293,7 +11298,7 @@
         <v>1225</v>
       </c>
       <c r="B35">
-        <v>0.1614692211151123</v>
+        <v>0.14059329032897949</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -11301,7 +11306,7 @@
         <v>1296</v>
       </c>
       <c r="B36">
-        <v>0.1259043216705322</v>
+        <v>0.1093473434448242</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -11309,7 +11314,7 @@
         <v>1369</v>
       </c>
       <c r="B37">
-        <v>0.1692802906036377</v>
+        <v>0.1235809326171875</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -11317,7 +11322,7 @@
         <v>1444</v>
       </c>
       <c r="B38">
-        <v>9.5021247863769531E-2</v>
+        <v>0.1117162704467773</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -11325,7 +11330,7 @@
         <v>1521</v>
       </c>
       <c r="B39">
-        <v>0.17333698272705081</v>
+        <v>0.1419672966003418</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -11333,7 +11338,7 @@
         <v>1600</v>
       </c>
       <c r="B40">
-        <v>0.12704181671142581</v>
+        <v>0.111600399017334</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -11341,7 +11346,7 @@
         <v>1681</v>
       </c>
       <c r="B41">
-        <v>0.15343499183654791</v>
+        <v>0.14076447486877439</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -11349,7 +11354,7 @@
         <v>1764</v>
       </c>
       <c r="B42">
-        <v>4.6858310699462891E-2</v>
+        <v>0.1250147819519043</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -11357,7 +11362,7 @@
         <v>1849</v>
       </c>
       <c r="B43">
-        <v>0.14063119888305661</v>
+        <v>0.1252171993255615</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -11365,7 +11370,7 @@
         <v>1936</v>
       </c>
       <c r="B44">
-        <v>4.6861648559570313E-2</v>
+        <v>9.3770027160644531E-2</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -11373,7 +11378,7 @@
         <v>2025</v>
       </c>
       <c r="B45">
-        <v>9.376215934753418E-2</v>
+        <v>9.372711181640625E-2</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -11381,7 +11386,7 @@
         <v>2116</v>
       </c>
       <c r="B46">
-        <v>6.2445878982543952E-2</v>
+        <v>7.9782485961914063E-2</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -11389,7 +11394,7 @@
         <v>2209</v>
       </c>
       <c r="B47">
-        <v>9.3726634979248047E-2</v>
+        <v>7.810664176940918E-2</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -11397,7 +11402,7 @@
         <v>2304</v>
       </c>
       <c r="B48">
-        <v>0.11081933975219729</v>
+        <v>7.8058481216430664E-2</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -11405,7 +11410,7 @@
         <v>2401</v>
       </c>
       <c r="B49">
-        <v>7.8107595443725586E-2</v>
+        <v>0.124971866607666</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -11413,7 +11418,7 @@
         <v>2500</v>
       </c>
       <c r="B50">
-        <v>0.1093459129333496</v>
+        <v>9.8179340362548828E-2</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -11421,7 +11426,7 @@
         <v>2601</v>
       </c>
       <c r="B51">
-        <v>7.810664176940918E-2</v>
+        <v>7.8112602233886719E-2</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
@@ -11429,7 +11434,7 @@
         <v>2704</v>
       </c>
       <c r="B52">
-        <v>0.1093482971191406</v>
+        <v>9.373927116394043E-2</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
@@ -11437,7 +11442,7 @@
         <v>2809</v>
       </c>
       <c r="B53">
-        <v>3.1236171722412109E-2</v>
+        <v>9.2825651168823242E-2</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -11445,7 +11450,7 @@
         <v>2916</v>
       </c>
       <c r="B54">
-        <v>0.1106147766113281</v>
+        <v>7.8147411346435547E-2</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
@@ -11453,7 +11458,7 @@
         <v>3025</v>
       </c>
       <c r="B55">
-        <v>6.24847412109375E-2</v>
+        <v>0.12502312660217291</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
@@ -11461,7 +11466,7 @@
         <v>3136</v>
       </c>
       <c r="B56">
-        <v>6.2484264373779297E-2</v>
+        <v>8.9928150177001953E-2</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
@@ -11469,7 +11474,7 @@
         <v>3249</v>
       </c>
       <c r="B57">
-        <v>6.2486171722412109E-2</v>
+        <v>9.4938039779663086E-2</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
@@ -11477,7 +11482,7 @@
         <v>3364</v>
       </c>
       <c r="B58">
-        <v>0.1249675750732422</v>
+        <v>0.10504460334777831</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
@@ -11485,7 +11490,7 @@
         <v>3481</v>
       </c>
       <c r="B59">
-        <v>7.8102827072143555E-2</v>
+        <v>9.3732118606567383E-2</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
@@ -11493,7 +11498,7 @@
         <v>3600</v>
       </c>
       <c r="B60">
-        <v>4.7460794448852539E-2</v>
+        <v>9.3770742416381836E-2</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
@@ -11501,7 +11506,7 @@
         <v>3721</v>
       </c>
       <c r="B61">
-        <v>9.3727350234985352E-2</v>
+        <v>8.033442497253418E-2</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
@@ -11509,7 +11514,7 @@
         <v>3844</v>
       </c>
       <c r="B62">
-        <v>0.1093876361846924</v>
+        <v>9.3731403350830078E-2</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
@@ -11517,7 +11522,7 @@
         <v>3969</v>
       </c>
       <c r="B63">
-        <v>3.124237060546875E-2</v>
+        <v>7.8110218048095703E-2</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
@@ -11525,7 +11530,7 @@
         <v>4096</v>
       </c>
       <c r="B64">
-        <v>4.6864986419677727E-2</v>
+        <v>9.3773603439331055E-2</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
@@ -11533,7 +11538,7 @@
         <v>4225</v>
       </c>
       <c r="B65">
-        <v>6.2481403350830078E-2</v>
+        <v>8.4460020065307617E-2</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
@@ -11541,7 +11546,7 @@
         <v>4356</v>
       </c>
       <c r="B66">
-        <v>7.4836015701293945E-2</v>
+        <v>7.8099489212036133E-2</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
@@ -11549,7 +11554,7 @@
         <v>4489</v>
       </c>
       <c r="B67">
-        <v>3.1250953674316413E-2</v>
+        <v>9.3684911727905273E-2</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
@@ -11557,7 +11562,7 @@
         <v>4624</v>
       </c>
       <c r="B68">
-        <v>4.6865224838256843E-2</v>
+        <v>7.8108310699462891E-2</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
@@ -11565,7 +11570,7 @@
         <v>4761</v>
       </c>
       <c r="B69">
-        <v>4.6861171722412109E-2</v>
+        <v>7.8106403350830078E-2</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
@@ -11573,7 +11578,7 @@
         <v>4900</v>
       </c>
       <c r="B70">
-        <v>6.2485933303833008E-2</v>
+        <v>9.3771934509277344E-2</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
@@ -11581,7 +11586,7 @@
         <v>5041</v>
       </c>
       <c r="B71">
-        <v>1.562404632568359E-2</v>
+        <v>9.3718767166137695E-2</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
@@ -11589,7 +11594,7 @@
         <v>5184</v>
       </c>
       <c r="B72">
-        <v>2.8254032135009769E-2</v>
+        <v>9.3719244003295898E-2</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
@@ -11597,7 +11602,7 @@
         <v>5329</v>
       </c>
       <c r="B73">
-        <v>0.1106870174407959</v>
+        <v>7.8103780746459961E-2</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
@@ -11605,7 +11610,7 @@
         <v>5476</v>
       </c>
       <c r="B74">
-        <v>7.1375608444213867E-2</v>
+        <v>0.14284324645996091</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
@@ -11613,7 +11618,7 @@
         <v>5625</v>
       </c>
       <c r="B75">
-        <v>4.6863079071044922E-2</v>
+        <v>9.3675851821899414E-2</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
@@ -11621,7 +11626,7 @@
         <v>5776</v>
       </c>
       <c r="B76">
-        <v>3.1244039535522461E-2</v>
+        <v>7.8121423721313477E-2</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
@@ -11629,7 +11634,7 @@
         <v>5929</v>
       </c>
       <c r="B77">
-        <v>6.2482357025146477E-2</v>
+        <v>7.8099966049194336E-2</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
@@ -11637,7 +11642,7 @@
         <v>6084</v>
       </c>
       <c r="B78">
-        <v>3.124332427978516E-2</v>
+        <v>7.8101396560668945E-2</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
@@ -11645,7 +11650,7 @@
         <v>6241</v>
       </c>
       <c r="B79">
-        <v>6.2483787536621087E-2</v>
+        <v>0.10267090797424321</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
@@ -11653,7 +11658,7 @@
         <v>6400</v>
       </c>
       <c r="B80">
-        <v>4.6860933303833008E-2</v>
+        <v>0.10934972763061521</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
@@ -11661,7 +11666,7 @@
         <v>6561</v>
       </c>
       <c r="B81">
-        <v>5.115199089050293E-2</v>
+        <v>9.367823600769043E-2</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
@@ -11669,7 +11674,7 @@
         <v>6724</v>
       </c>
       <c r="B82">
-        <v>4.6863079071044922E-2</v>
+        <v>0.15621328353881839</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
@@ -11677,7 +11682,7 @@
         <v>6889</v>
       </c>
       <c r="B83">
-        <v>0.13331866264343259</v>
+        <v>0.14188504219055181</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
@@ -11685,7 +11690,7 @@
         <v>7056</v>
       </c>
       <c r="B84">
-        <v>6.2487125396728523E-2</v>
+        <v>0.1106266975402832</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
@@ -11693,7 +11698,7 @@
         <v>7225</v>
       </c>
       <c r="B85">
-        <v>3.124237060546875E-2</v>
+        <v>9.846949577331543E-2</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
@@ -11701,7 +11706,7 @@
         <v>7396</v>
       </c>
       <c r="B86">
-        <v>1.5623331069946291E-2</v>
+        <v>8.1265449523925781E-2</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
@@ -11709,7 +11714,7 @@
         <v>7569</v>
       </c>
       <c r="B87">
-        <v>4.6906232833862298E-2</v>
+        <v>9.3285560607910156E-2</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
@@ -11717,7 +11722,7 @@
         <v>7744</v>
       </c>
       <c r="B88">
-        <v>3.1285762786865227E-2</v>
+        <v>0.10934782028198239</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
@@ -11725,7 +11730,7 @@
         <v>7921</v>
       </c>
       <c r="B89">
-        <v>4.6903610229492188E-2</v>
+        <v>9.3726158142089844E-2</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
@@ -11733,7 +11738,7 @@
         <v>8100</v>
       </c>
       <c r="B90">
-        <v>2.0072698593139648E-2</v>
+        <v>9.3729019165039063E-2</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
@@ -11741,7 +11746,7 @@
         <v>8281</v>
       </c>
       <c r="B91">
-        <v>3.2222747802734382E-2</v>
+        <v>0.1249265670776367</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
@@ -11749,7 +11754,7 @@
         <v>8464</v>
       </c>
       <c r="B92">
-        <v>1.5619277954101561E-2</v>
+        <v>0.1093485355377197</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
@@ -11757,7 +11762,7 @@
         <v>8649</v>
       </c>
       <c r="B93">
-        <v>4.686284065246582E-2</v>
+        <v>0.14340734481811521</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
@@ -11765,7 +11770,7 @@
         <v>8836</v>
       </c>
       <c r="B94">
-        <v>3.1196832656860352E-2</v>
+        <v>0.22003054618835449</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
@@ -11773,7 +11778,7 @@
         <v>9025</v>
       </c>
       <c r="B95">
-        <v>0.12492489814758299</v>
+        <v>0.15626001358032229</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
@@ -11781,7 +11786,7 @@
         <v>9216</v>
       </c>
       <c r="B96">
-        <v>6.2486171722412109E-2</v>
+        <v>0.12497687339782711</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
@@ -11789,7 +11794,7 @@
         <v>9409</v>
       </c>
       <c r="B97">
-        <v>4.6865701675415039E-2</v>
+        <v>0.1042938232421875</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
@@ -11797,7 +11802,7 @@
         <v>9604</v>
       </c>
       <c r="B98">
-        <v>4.6862363815307617E-2</v>
+        <v>7.8148841857910156E-2</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
@@ -11805,7 +11810,7 @@
         <v>9801</v>
       </c>
       <c r="B99">
-        <v>4.6822071075439453E-2</v>
+        <v>9.3676090240478516E-2</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
@@ -11813,7 +11818,7 @@
         <v>10000</v>
       </c>
       <c r="B100">
-        <v>3.124237060546875E-2</v>
+        <v>0.1249251365661621</v>
       </c>
     </row>
   </sheetData>
@@ -11826,8 +11831,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B100"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R13" sqref="R13"/>
+    <sheetView topLeftCell="A80" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11849,7 +11854,7 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>3.124189376831055E-2</v>
+        <v>1.5618801116943359E-2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -11857,7 +11862,7 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>3.1242132186889648E-2</v>
+        <v>3.1200885772705082E-2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -11865,7 +11870,7 @@
         <v>16</v>
       </c>
       <c r="B4">
-        <v>3.124332427978516E-2</v>
+        <v>1.562142372131348E-2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -11873,7 +11878,7 @@
         <v>25</v>
       </c>
       <c r="B5">
-        <v>4.6864748001098633E-2</v>
+        <v>3.1190156936645511E-2</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -11881,7 +11886,7 @@
         <v>36</v>
       </c>
       <c r="B6">
-        <v>4.6898841857910163E-2</v>
+        <v>3.1241655349731449E-2</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -11889,7 +11894,7 @@
         <v>49</v>
       </c>
       <c r="B7">
-        <v>4.7626733779907227E-2</v>
+        <v>1.5626668930053711E-2</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -11897,7 +11902,7 @@
         <v>64</v>
       </c>
       <c r="B8">
-        <v>4.6861171722412109E-2</v>
+        <v>3.1242609024047852E-2</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -11905,7 +11910,7 @@
         <v>81</v>
       </c>
       <c r="B9">
-        <v>1.562190055847168E-2</v>
+        <v>3.1245231628417969E-2</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -11913,7 +11918,7 @@
         <v>100</v>
       </c>
       <c r="B10">
-        <v>3.124237060546875E-2</v>
+        <v>3.1242609024047852E-2</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -11921,7 +11926,7 @@
         <v>121</v>
       </c>
       <c r="B11">
-        <v>3.124284744262695E-2</v>
+        <v>3.1240701675415039E-2</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -11929,7 +11934,7 @@
         <v>144</v>
       </c>
       <c r="B12">
-        <v>3.1203031539916989E-2</v>
+        <v>1.566720008850098E-2</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -11937,7 +11942,7 @@
         <v>169</v>
       </c>
       <c r="B13">
-        <v>4.0356874465942383E-2</v>
+        <v>1.5619516372680661E-2</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -11945,7 +11950,7 @@
         <v>196</v>
       </c>
       <c r="B14">
-        <v>3.1202554702758789E-2</v>
+        <v>3.1196355819702148E-2</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -11953,7 +11958,7 @@
         <v>225</v>
       </c>
       <c r="B15">
-        <v>3.1242609024047852E-2</v>
+        <v>3.1202077865600589E-2</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -11961,7 +11966,7 @@
         <v>256</v>
       </c>
       <c r="B16">
-        <v>4.7120094299316413E-2</v>
+        <v>1.557493209838867E-2</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -11969,7 +11974,7 @@
         <v>289</v>
       </c>
       <c r="B17">
-        <v>3.1240701675415039E-2</v>
+        <v>1.5619754791259771E-2</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -11977,7 +11982,7 @@
         <v>324</v>
       </c>
       <c r="B18">
-        <v>3.1283140182495117E-2</v>
+        <v>1.716971397399902E-2</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -11985,7 +11990,7 @@
         <v>361</v>
       </c>
       <c r="B19">
-        <v>3.1203031539916989E-2</v>
+        <v>3.1286239624023438E-2</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -11993,7 +11998,7 @@
         <v>400</v>
       </c>
       <c r="B20">
-        <v>5.5269956588745117E-2</v>
+        <v>1.562094688415527E-2</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -12001,7 +12006,7 @@
         <v>441</v>
       </c>
       <c r="B21">
-        <v>4.6863794326782227E-2</v>
+        <v>3.1198740005493161E-2</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -12009,7 +12014,7 @@
         <v>484</v>
       </c>
       <c r="B22">
-        <v>4.686284065246582E-2</v>
+        <v>1.55789852142334E-2</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -12017,7 +12022,7 @@
         <v>529</v>
       </c>
       <c r="B23">
-        <v>4.6866416931152337E-2</v>
+        <v>2.013492584228516E-2</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -12025,7 +12030,7 @@
         <v>576</v>
       </c>
       <c r="B24">
-        <v>4.6864748001098633E-2</v>
+        <v>3.124189376831055E-2</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -12033,7 +12038,7 @@
         <v>625</v>
       </c>
       <c r="B25">
-        <v>4.6867847442626953E-2</v>
+        <v>4.6863555908203118E-2</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -12041,7 +12046,7 @@
         <v>676</v>
       </c>
       <c r="B26">
-        <v>3.1244039535522461E-2</v>
+        <v>1.566767692565918E-2</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -12049,7 +12054,7 @@
         <v>729</v>
       </c>
       <c r="B27">
-        <v>3.1239986419677731E-2</v>
+        <v>1.5623331069946291E-2</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -12057,7 +12062,7 @@
         <v>784</v>
       </c>
       <c r="B28">
-        <v>3.124547004699707E-2</v>
+        <v>3.1286478042602539E-2</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -12065,7 +12070,7 @@
         <v>841</v>
       </c>
       <c r="B29">
-        <v>4.4355869293212891E-2</v>
+        <v>1.5580892562866209E-2</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -12073,7 +12078,7 @@
         <v>900</v>
       </c>
       <c r="B30">
-        <v>3.9647817611694343E-2</v>
+        <v>3.124237060546875E-2</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -12081,7 +12086,7 @@
         <v>961</v>
       </c>
       <c r="B31">
-        <v>2.8253793716430661E-2</v>
+        <v>1.9143342971801761E-2</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -12089,7 +12094,7 @@
         <v>1024</v>
       </c>
       <c r="B32">
-        <v>2.82139778137207E-2</v>
+        <v>1.557540893554688E-2</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -12097,7 +12102,7 @@
         <v>1089</v>
       </c>
       <c r="B33">
-        <v>3.1281471252441413E-2</v>
+        <v>3.1267642974853523E-2</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -12105,7 +12110,7 @@
         <v>1156</v>
       </c>
       <c r="B34">
-        <v>3.2176494598388672E-2</v>
+        <v>2.2893428802490231E-2</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -12113,7 +12118,7 @@
         <v>1225</v>
       </c>
       <c r="B35">
-        <v>4.6863317489624023E-2</v>
+        <v>1.562118530273438E-2</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -12121,7 +12126,7 @@
         <v>1296</v>
       </c>
       <c r="B36">
-        <v>2.3931741714477539E-2</v>
+        <v>3.1243085861206051E-2</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -12129,7 +12134,7 @@
         <v>1369</v>
       </c>
       <c r="B37">
-        <v>3.1242609024047852E-2</v>
+        <v>6.2485218048095703E-2</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -12137,7 +12142,7 @@
         <v>1444</v>
       </c>
       <c r="B38">
-        <v>1.5619039535522459E-2</v>
+        <v>3.1198740005493161E-2</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -12145,7 +12150,7 @@
         <v>1521</v>
       </c>
       <c r="B39">
-        <v>3.1203031539916989E-2</v>
+        <v>3.1242609024047852E-2</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -12153,7 +12158,7 @@
         <v>1600</v>
       </c>
       <c r="B40">
-        <v>1.566720008850098E-2</v>
+        <v>3.1201601028442379E-2</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -12161,7 +12166,7 @@
         <v>1681</v>
       </c>
       <c r="B41">
-        <v>2.3907899856567379E-2</v>
+        <v>1.784205436706543E-2</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -12169,7 +12174,7 @@
         <v>1764</v>
       </c>
       <c r="B42">
-        <v>1.562166213989258E-2</v>
+        <v>3.3859968185424798E-2</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -12177,7 +12182,7 @@
         <v>1849</v>
       </c>
       <c r="B43">
-        <v>3.1252145767211907E-2</v>
+        <v>3.1287431716918952E-2</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -12185,7 +12190,7 @@
         <v>1936</v>
       </c>
       <c r="B44">
-        <v>1.5661716461181641E-2</v>
+        <v>1.5576601028442379E-2</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -12193,7 +12198,7 @@
         <v>2025</v>
       </c>
       <c r="B45">
-        <v>3.124690055847168E-2</v>
+        <v>3.120064735412598E-2</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -12201,7 +12206,7 @@
         <v>2116</v>
       </c>
       <c r="B46">
-        <v>1.562094688415527E-2</v>
+        <v>1.562023162841797E-2</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -12209,7 +12214,7 @@
         <v>2209</v>
       </c>
       <c r="B47">
-        <v>1.5665054321289059E-2</v>
+        <v>1.5611410140991209E-2</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -12217,7 +12222,7 @@
         <v>2304</v>
       </c>
       <c r="B48">
-        <v>3.1280517578125E-2</v>
+        <v>3.124284744262695E-2</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -12225,7 +12230,7 @@
         <v>2401</v>
       </c>
       <c r="B49">
-        <v>1.566410064697266E-2</v>
+        <v>3.1243801116943359E-2</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -12233,7 +12238,7 @@
         <v>2500</v>
       </c>
       <c r="B50">
-        <v>3.1244754791259769E-2</v>
+        <v>1.221036911010742E-2</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -12241,7 +12246,7 @@
         <v>2601</v>
       </c>
       <c r="B51">
-        <v>1.5622377395629879E-2</v>
+        <v>1.5615463256835939E-2</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
@@ -12249,7 +12254,7 @@
         <v>2704</v>
       </c>
       <c r="B52">
-        <v>1.562118530273438E-2</v>
+        <v>3.1192302703857418E-2</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
@@ -12257,7 +12262,7 @@
         <v>2809</v>
       </c>
       <c r="B53">
-        <v>1.5580654144287109E-2</v>
+        <v>1.8869161605834961E-2</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -12265,7 +12270,7 @@
         <v>2916</v>
       </c>
       <c r="B54">
-        <v>3.1245231628417969E-2</v>
+        <v>3.1243801116943359E-2</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
@@ -12273,7 +12278,7 @@
         <v>3025</v>
       </c>
       <c r="B55">
-        <v>1.586461067199707E-2</v>
+        <v>1.5570163726806641E-2</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
@@ -12281,7 +12286,7 @@
         <v>3136</v>
       </c>
       <c r="B56">
-        <v>1.562094688415527E-2</v>
+        <v>6.2527894973754883E-2</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
@@ -12289,7 +12294,7 @@
         <v>3249</v>
       </c>
       <c r="B57">
-        <v>1.562047004699707E-2</v>
+        <v>3.1293392181396477E-2</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
@@ -12297,7 +12302,7 @@
         <v>3364</v>
       </c>
       <c r="B58">
-        <v>3.1244993209838871E-2</v>
+        <v>2.0943880081176761E-2</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
@@ -12305,7 +12310,7 @@
         <v>3481</v>
       </c>
       <c r="B59">
-        <v>1.5622377395629879E-2</v>
+        <v>1.5616655349731451E-2</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
@@ -12313,7 +12318,7 @@
         <v>3600</v>
       </c>
       <c r="B60">
-        <v>0</v>
+        <v>1.558041572570801E-2</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
@@ -12321,7 +12326,7 @@
         <v>3721</v>
       </c>
       <c r="B61">
-        <v>1.562166213989258E-2</v>
+        <v>1.562190055847168E-2</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
@@ -12329,7 +12334,7 @@
         <v>3844</v>
       </c>
       <c r="B62">
-        <v>3.1205892562866211E-2</v>
+        <v>1.5623331069946291E-2</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
@@ -12337,7 +12342,7 @@
         <v>3969</v>
       </c>
       <c r="B63">
-        <v>1.562094688415527E-2</v>
+        <v>3.1193733215332031E-2</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
@@ -12345,7 +12350,7 @@
         <v>4096</v>
       </c>
       <c r="B64">
-        <v>0</v>
+        <v>1.562118530273438E-2</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
@@ -12353,7 +12358,7 @@
         <v>4225</v>
       </c>
       <c r="B65">
-        <v>3.1244516372680661E-2</v>
+        <v>2.0941019058227539E-2</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
@@ -12361,7 +12366,7 @@
         <v>4356</v>
       </c>
       <c r="B66">
-        <v>1.562118530273438E-2</v>
+        <v>3.125E-2</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
@@ -12369,7 +12374,7 @@
         <v>4489</v>
       </c>
       <c r="B67">
-        <v>1.5576601028442379E-2</v>
+        <v>1.562070846557617E-2</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
@@ -12377,7 +12382,7 @@
         <v>4624</v>
       </c>
       <c r="B68">
-        <v>0</v>
+        <v>3.124284744262695E-2</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
@@ -12385,7 +12390,7 @@
         <v>4761</v>
       </c>
       <c r="B69">
-        <v>1.5619516372680661E-2</v>
+        <v>3.458714485168457E-2</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
@@ -12393,7 +12398,7 @@
         <v>4900</v>
       </c>
       <c r="B70">
-        <v>1.562047004699707E-2</v>
+        <v>1.557588577270508E-2</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
@@ -12401,7 +12406,7 @@
         <v>5041</v>
       </c>
       <c r="B71">
-        <v>1.5619516372680661E-2</v>
+        <v>1.562094688415527E-2</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
@@ -12409,7 +12414,7 @@
         <v>5184</v>
       </c>
       <c r="B72">
-        <v>1.5664339065551761E-2</v>
+        <v>1.562118530273438E-2</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
@@ -12417,7 +12422,7 @@
         <v>5329</v>
       </c>
       <c r="B73">
-        <v>3.1244754791259769E-2</v>
+        <v>3.124594688415527E-2</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
@@ -12425,7 +12430,7 @@
         <v>5476</v>
       </c>
       <c r="B74">
-        <v>1.2247562408447271E-2</v>
+        <v>1.562213897705078E-2</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
@@ -12433,7 +12438,7 @@
         <v>5625</v>
       </c>
       <c r="B75">
-        <v>0</v>
+        <v>1.5670537948608398E-2</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
@@ -12441,7 +12446,7 @@
         <v>5776</v>
       </c>
       <c r="B76">
-        <v>1.562166213989258E-2</v>
+        <v>3.1244754791259769E-2</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
@@ -12449,7 +12454,7 @@
         <v>5929</v>
       </c>
       <c r="B77">
-        <v>1.5622854232788089E-2</v>
+        <v>1.562118530273438E-2</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
@@ -12457,7 +12462,7 @@
         <v>6084</v>
       </c>
       <c r="B78">
-        <v>1.5619993209838871E-2</v>
+        <v>3.1240224838256839E-2</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
@@ -12465,7 +12470,7 @@
         <v>6241</v>
       </c>
       <c r="B79">
-        <v>1.562094688415527E-2</v>
+        <v>3.1243085861206051E-2</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
@@ -12473,7 +12478,7 @@
         <v>6400</v>
       </c>
       <c r="B80">
-        <v>0</v>
+        <v>4.6862363815307617E-2</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
@@ -12481,7 +12486,7 @@
         <v>6561</v>
       </c>
       <c r="B81">
-        <v>1.200127601623535E-2</v>
+        <v>3.1239986419677731E-2</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
@@ -12489,7 +12494,7 @@
         <v>6724</v>
       </c>
       <c r="B82">
-        <v>2.0071268081665039E-2</v>
+        <v>4.686427116394043E-2</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
@@ -12497,7 +12502,7 @@
         <v>6889</v>
       </c>
       <c r="B83">
-        <v>1.5622377395629879E-2</v>
+        <v>2.5927543640136719E-2</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
@@ -12505,7 +12510,7 @@
         <v>7056</v>
       </c>
       <c r="B84">
-        <v>1.5618801116943359E-2</v>
+        <v>1.5658855438232418E-2</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
@@ -12513,7 +12518,7 @@
         <v>7225</v>
       </c>
       <c r="B85">
-        <v>1.5662431716918949E-2</v>
+        <v>3.124284744262695E-2</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
@@ -12521,7 +12526,7 @@
         <v>7396</v>
       </c>
       <c r="B86">
-        <v>1.5622377395629879E-2</v>
+        <v>3.124332427978516E-2</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
@@ -12529,7 +12534,7 @@
         <v>7569</v>
       </c>
       <c r="B87">
-        <v>1.55789852142334E-2</v>
+        <v>1.56254768371582E-2</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
@@ -12537,7 +12542,7 @@
         <v>7744</v>
       </c>
       <c r="B88">
-        <v>1.5580654144287109E-2</v>
+        <v>3.1244039535522461E-2</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
@@ -12545,7 +12550,7 @@
         <v>7921</v>
       </c>
       <c r="B89">
-        <v>1.5580892562866209E-2</v>
+        <v>3.1243801116943359E-2</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
@@ -12553,7 +12558,7 @@
         <v>8100</v>
       </c>
       <c r="B90">
-        <v>0</v>
+        <v>1.5662908554077148E-2</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
@@ -12561,7 +12566,7 @@
         <v>8281</v>
       </c>
       <c r="B91">
-        <v>1.5658140182495121E-2</v>
+        <v>3.124284744262695E-2</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
@@ -12569,7 +12574,7 @@
         <v>8464</v>
       </c>
       <c r="B92">
-        <v>1.9916534423828122E-2</v>
+        <v>4.6863794326782227E-2</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
@@ -12577,7 +12582,7 @@
         <v>8649</v>
       </c>
       <c r="B93">
-        <v>0</v>
+        <v>3.124284744262695E-2</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
@@ -12585,7 +12590,7 @@
         <v>8836</v>
       </c>
       <c r="B94">
-        <v>0</v>
+        <v>4.6863794326782227E-2</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
@@ -12593,7 +12598,7 @@
         <v>9025</v>
       </c>
       <c r="B95">
-        <v>1.562166213989258E-2</v>
+        <v>3.1247138977050781E-2</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
@@ -12601,7 +12606,7 @@
         <v>9216</v>
       </c>
       <c r="B96">
-        <v>1.562070846557617E-2</v>
+        <v>4.6943187713623047E-2</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
@@ -12609,7 +12614,7 @@
         <v>9409</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>3.1198978424072269E-2</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
@@ -12617,7 +12622,7 @@
         <v>9604</v>
       </c>
       <c r="B98">
-        <v>1.5619516372680661E-2</v>
+        <v>3.1244516372680661E-2</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
@@ -12625,7 +12630,7 @@
         <v>9801</v>
       </c>
       <c r="B99">
-        <v>1.562142372131348E-2</v>
+        <v>1.562118530273438E-2</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
@@ -12633,7 +12638,7 @@
         <v>10000</v>
       </c>
       <c r="B100">
-        <v>1.562070846557617E-2</v>
+        <v>3.124237060546875E-2</v>
       </c>
     </row>
   </sheetData>
@@ -12646,15 +12651,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB4D4FBF-F508-41C4-A678-4B14343BCE50}">
   <dimension ref="A1:D100"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D100"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.7109375" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" customWidth="1"/>
     <col min="4" max="4" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -12677,13 +12682,13 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>5.5561304092407227E-2</v>
+        <v>1.5580654144287109E-2</v>
       </c>
       <c r="C2">
-        <v>0.23431944847106931</v>
+        <v>0.1093990802764893</v>
       </c>
       <c r="D2">
-        <v>3.124189376831055E-2</v>
+        <v>1.5618801116943359E-2</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -12691,13 +12696,13 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>3.1283378601074219E-2</v>
+        <v>1.5623569488525391E-2</v>
       </c>
       <c r="C3">
-        <v>0.17179703712463379</v>
+        <v>0.1093473434448242</v>
       </c>
       <c r="D3">
-        <v>3.1242132186889648E-2</v>
+        <v>3.1200885772705082E-2</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -12705,13 +12710,13 @@
         <v>16</v>
       </c>
       <c r="B4">
-        <v>3.1241655349731449E-2</v>
+        <v>1.5619277954101561E-2</v>
       </c>
       <c r="C4">
-        <v>0.1874542236328125</v>
+        <v>0.1093502044677734</v>
       </c>
       <c r="D4">
-        <v>3.124332427978516E-2</v>
+        <v>1.562142372131348E-2</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -12719,13 +12724,13 @@
         <v>25</v>
       </c>
       <c r="B5">
-        <v>3.1285762786865227E-2</v>
+        <v>1.5674114227294918E-2</v>
       </c>
       <c r="C5">
-        <v>0.15616726875305181</v>
+        <v>0.1093506813049316</v>
       </c>
       <c r="D5">
-        <v>4.6864748001098633E-2</v>
+        <v>3.1190156936645511E-2</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -12733,13 +12738,13 @@
         <v>36</v>
       </c>
       <c r="B6">
-        <v>3.1239748001098629E-2</v>
+        <v>1.561832427978516E-2</v>
       </c>
       <c r="C6">
-        <v>0.15769171714782709</v>
+        <v>0.10935235023498539</v>
       </c>
       <c r="D6">
-        <v>4.6898841857910163E-2</v>
+        <v>3.1241655349731449E-2</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -12747,13 +12752,13 @@
         <v>49</v>
       </c>
       <c r="B7">
-        <v>1.5580654144287109E-2</v>
+        <v>1.5619993209838871E-2</v>
       </c>
       <c r="C7">
-        <v>0.1874535083770752</v>
+        <v>0.1250112056732178</v>
       </c>
       <c r="D7">
-        <v>4.7626733779907227E-2</v>
+        <v>1.5626668930053711E-2</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -12761,13 +12766,13 @@
         <v>64</v>
       </c>
       <c r="B8">
-        <v>3.1244993209838871E-2</v>
+        <v>1.5659332275390622E-2</v>
       </c>
       <c r="C8">
-        <v>0.15621280670166021</v>
+        <v>0.1093101501464844</v>
       </c>
       <c r="D8">
-        <v>4.6861171722412109E-2</v>
+        <v>3.1242609024047852E-2</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -12775,13 +12780,13 @@
         <v>81</v>
       </c>
       <c r="B9">
-        <v>1.5623092651367189E-2</v>
+        <v>1.562070846557617E-2</v>
       </c>
       <c r="C9">
-        <v>0.1093895435333252</v>
+        <v>8.041691780090332E-2</v>
       </c>
       <c r="D9">
-        <v>1.562190055847168E-2</v>
+        <v>3.1245231628417969E-2</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -12789,13 +12794,13 @@
         <v>100</v>
       </c>
       <c r="B10">
-        <v>1.562404632568359E-2</v>
+        <v>1.5619277954101561E-2</v>
       </c>
       <c r="C10">
-        <v>0.1093490123748779</v>
+        <v>0.1093943119049072</v>
       </c>
       <c r="D10">
-        <v>3.124237060546875E-2</v>
+        <v>3.1242609024047852E-2</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -12803,13 +12808,13 @@
         <v>121</v>
       </c>
       <c r="B11">
-        <v>1.2151956558227541E-2</v>
+        <v>1.5666007995605469E-2</v>
       </c>
       <c r="C11">
-        <v>0.10934996604919429</v>
+        <v>7.8062534332275391E-2</v>
       </c>
       <c r="D11">
-        <v>3.124284744262695E-2</v>
+        <v>3.1240701675415039E-2</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -12817,13 +12822,13 @@
         <v>144</v>
       </c>
       <c r="B12">
-        <v>3.1244277954101559E-2</v>
+        <v>3.2566070556640618E-2</v>
       </c>
       <c r="C12">
-        <v>0.17187166213989261</v>
+        <v>0.11655378341674801</v>
       </c>
       <c r="D12">
-        <v>3.1203031539916989E-2</v>
+        <v>1.566720008850098E-2</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -12831,13 +12836,13 @@
         <v>169</v>
       </c>
       <c r="B13">
-        <v>3.1240463256835941E-2</v>
+        <v>1.5576839447021479E-2</v>
       </c>
       <c r="C13">
-        <v>0.17183709144592291</v>
+        <v>9.3729257583618164E-2</v>
       </c>
       <c r="D13">
-        <v>4.0356874465942383E-2</v>
+        <v>1.5619516372680661E-2</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -12845,13 +12850,13 @@
         <v>196</v>
       </c>
       <c r="B14">
-        <v>1.6282320022583011E-2</v>
+        <v>1.5619039535522459E-2</v>
       </c>
       <c r="C14">
-        <v>0.17187619209289551</v>
+        <v>0.10934996604919429</v>
       </c>
       <c r="D14">
-        <v>3.1202554702758789E-2</v>
+        <v>3.1196355819702148E-2</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -12859,13 +12864,13 @@
         <v>225</v>
       </c>
       <c r="B15">
-        <v>1.5624284744262701E-2</v>
+        <v>1.562047004699707E-2</v>
       </c>
       <c r="C15">
-        <v>0.1093482971191406</v>
+        <v>8.0327272415161133E-2</v>
       </c>
       <c r="D15">
-        <v>3.1242609024047852E-2</v>
+        <v>3.1202077865600589E-2</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -12873,13 +12878,13 @@
         <v>256</v>
       </c>
       <c r="B16">
-        <v>3.1243085861206051E-2</v>
+        <v>1.561641693115234E-2</v>
       </c>
       <c r="C16">
-        <v>0.20476508140563959</v>
+        <v>0.1093490123748779</v>
       </c>
       <c r="D16">
-        <v>4.7120094299316413E-2</v>
+        <v>1.557493209838867E-2</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -12887,13 +12892,13 @@
         <v>289</v>
       </c>
       <c r="B17">
-        <v>1.5657663345336911E-2</v>
+        <v>1.562094688415527E-2</v>
       </c>
       <c r="C17">
-        <v>0.1249330043792725</v>
+        <v>9.3689203262329102E-2</v>
       </c>
       <c r="D17">
-        <v>3.1240701675415039E-2</v>
+        <v>1.5619754791259771E-2</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -12901,13 +12906,13 @@
         <v>324</v>
       </c>
       <c r="B18">
-        <v>1.5622377395629879E-2</v>
+        <v>1.5665769577026371E-2</v>
       </c>
       <c r="C18">
-        <v>0.17183232307434079</v>
+        <v>9.4421625137329102E-2</v>
       </c>
       <c r="D18">
-        <v>3.1283140182495117E-2</v>
+        <v>1.716971397399902E-2</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -12915,13 +12920,13 @@
         <v>361</v>
       </c>
       <c r="B19">
-        <v>1.562142372131348E-2</v>
+        <v>1.5625715255737301E-2</v>
       </c>
       <c r="C19">
-        <v>0.14063334465026861</v>
+        <v>7.8063249588012695E-2</v>
       </c>
       <c r="D19">
-        <v>3.1203031539916989E-2</v>
+        <v>3.1286239624023438E-2</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -12929,13 +12934,13 @@
         <v>400</v>
       </c>
       <c r="B20">
-        <v>3.124284744262695E-2</v>
+        <v>1.5622615814208979E-2</v>
       </c>
       <c r="C20">
-        <v>0.15625190734863281</v>
+        <v>9.6967458724975586E-2</v>
       </c>
       <c r="D20">
-        <v>5.5269956588745117E-2</v>
+        <v>1.562094688415527E-2</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -12943,13 +12948,13 @@
         <v>441</v>
       </c>
       <c r="B21">
-        <v>3.1242609024047852E-2</v>
+        <v>1.5622377395629879E-2</v>
       </c>
       <c r="C21">
-        <v>0.15772390365600589</v>
+        <v>9.3723297119140625E-2</v>
       </c>
       <c r="D21">
-        <v>4.6863794326782227E-2</v>
+        <v>3.1198740005493161E-2</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -12957,13 +12962,13 @@
         <v>484</v>
       </c>
       <c r="B22">
-        <v>2.803897857666016E-2</v>
+        <v>1.562070846557617E-2</v>
       </c>
       <c r="C22">
-        <v>0.1605875492095947</v>
+        <v>9.3726634979248047E-2</v>
       </c>
       <c r="D22">
-        <v>4.686284065246582E-2</v>
+        <v>1.55789852142334E-2</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -12971,13 +12976,13 @@
         <v>529</v>
       </c>
       <c r="B23">
-        <v>3.124284744262695E-2</v>
+        <v>1.56245231628418E-2</v>
       </c>
       <c r="C23">
-        <v>0.17179536819458011</v>
+        <v>0.1217019557952881</v>
       </c>
       <c r="D23">
-        <v>4.6866416931152337E-2</v>
+        <v>2.013492584228516E-2</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -12985,13 +12990,13 @@
         <v>576</v>
       </c>
       <c r="B24">
-        <v>3.1243085861206051E-2</v>
+        <v>1.562190055847168E-2</v>
       </c>
       <c r="C24">
-        <v>0.1562156677246094</v>
+        <v>7.8150510787963867E-2</v>
       </c>
       <c r="D24">
-        <v>4.6864748001098633E-2</v>
+        <v>3.124189376831055E-2</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -12999,13 +13004,13 @@
         <v>625</v>
       </c>
       <c r="B25">
-        <v>3.1243085861206051E-2</v>
+        <v>4.2005777359008789E-2</v>
       </c>
       <c r="C25">
-        <v>0.1562151908874512</v>
+        <v>0.1633913516998291</v>
       </c>
       <c r="D25">
-        <v>4.6867847442626953E-2</v>
+        <v>4.6863555908203118E-2</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -13013,13 +13018,13 @@
         <v>676</v>
       </c>
       <c r="B26">
-        <v>3.124547004699707E-2</v>
+        <v>1.557826995849609E-2</v>
       </c>
       <c r="C26">
-        <v>0.14058756828308111</v>
+        <v>9.6013784408569336E-2</v>
       </c>
       <c r="D26">
-        <v>3.1244039535522461E-2</v>
+        <v>1.566767692565918E-2</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -13027,13 +13032,13 @@
         <v>729</v>
       </c>
       <c r="B27">
-        <v>3.1243085861206051E-2</v>
+        <v>1.5673160552978519E-2</v>
       </c>
       <c r="C27">
-        <v>0.17187595367431641</v>
+        <v>7.8104496002197266E-2</v>
       </c>
       <c r="D27">
-        <v>3.1239986419677731E-2</v>
+        <v>1.5623331069946291E-2</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -13041,13 +13046,13 @@
         <v>784</v>
       </c>
       <c r="B28">
-        <v>1.5619277954101561E-2</v>
+        <v>1.391720771789551E-2</v>
       </c>
       <c r="C28">
-        <v>0.1249284744262695</v>
+        <v>7.2770595550537109E-2</v>
       </c>
       <c r="D28">
-        <v>3.124547004699707E-2</v>
+        <v>3.1286478042602539E-2</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -13055,13 +13060,13 @@
         <v>841</v>
       </c>
       <c r="B29">
-        <v>3.1243085861206051E-2</v>
+        <v>1.562070846557617E-2</v>
       </c>
       <c r="C29">
-        <v>0.15621304512023931</v>
+        <v>9.3769550323486328E-2</v>
       </c>
       <c r="D29">
-        <v>4.4355869293212891E-2</v>
+        <v>1.5580892562866209E-2</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -13069,13 +13074,13 @@
         <v>900</v>
       </c>
       <c r="B30">
-        <v>1.5623092651367189E-2</v>
+        <v>1.562380790710449E-2</v>
       </c>
       <c r="C30">
-        <v>0.10930609703063961</v>
+        <v>9.3677043914794922E-2</v>
       </c>
       <c r="D30">
-        <v>3.9647817611694343E-2</v>
+        <v>3.124237060546875E-2</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -13083,13 +13088,13 @@
         <v>961</v>
       </c>
       <c r="B31">
-        <v>3.1202316284179691E-2</v>
+        <v>1.5622854232788089E-2</v>
       </c>
       <c r="C31">
-        <v>0.1606490612030029</v>
+        <v>9.229588508605957E-2</v>
       </c>
       <c r="D31">
-        <v>2.8253793716430661E-2</v>
+        <v>1.9143342971801761E-2</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -13097,13 +13102,13 @@
         <v>1024</v>
       </c>
       <c r="B32">
-        <v>3.1242609024047852E-2</v>
+        <v>1.557540893554688E-2</v>
       </c>
       <c r="C32">
-        <v>0.129364013671875</v>
+        <v>9.3774557113647461E-2</v>
       </c>
       <c r="D32">
-        <v>2.82139778137207E-2</v>
+        <v>1.557540893554688E-2</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -13111,13 +13116,13 @@
         <v>1089</v>
       </c>
       <c r="B33">
-        <v>1.5622854232788089E-2</v>
+        <v>4.6863317489624023E-2</v>
       </c>
       <c r="C33">
-        <v>0.14601898193359381</v>
+        <v>9.3731880187988281E-2</v>
       </c>
       <c r="D33">
-        <v>3.1281471252441413E-2</v>
+        <v>3.1267642974853523E-2</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -13125,13 +13130,13 @@
         <v>1156</v>
       </c>
       <c r="B34">
-        <v>1.5619277954101561E-2</v>
+        <v>1.5619993209838871E-2</v>
       </c>
       <c r="C34">
-        <v>9.3726873397827148E-2</v>
+        <v>8.846735954284668E-2</v>
       </c>
       <c r="D34">
-        <v>3.2176494598388672E-2</v>
+        <v>2.2893428802490231E-2</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -13139,13 +13144,13 @@
         <v>1225</v>
       </c>
       <c r="B35">
-        <v>3.1243562698364261E-2</v>
+        <v>1.5619993209838871E-2</v>
       </c>
       <c r="C35">
-        <v>0.1614692211151123</v>
+        <v>0.14059329032897949</v>
       </c>
       <c r="D35">
-        <v>4.6863317489624023E-2</v>
+        <v>1.562118530273438E-2</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -13153,13 +13158,13 @@
         <v>1296</v>
       </c>
       <c r="B36">
-        <v>1.562118530273438E-2</v>
+        <v>1.557826995849609E-2</v>
       </c>
       <c r="C36">
-        <v>0.1259043216705322</v>
+        <v>0.1093473434448242</v>
       </c>
       <c r="D36">
-        <v>2.3931741714477539E-2</v>
+        <v>3.1243085861206051E-2</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -13167,13 +13172,13 @@
         <v>1369</v>
       </c>
       <c r="B37">
-        <v>3.1240224838256839E-2</v>
+        <v>1.556801795959473E-2</v>
       </c>
       <c r="C37">
-        <v>0.1692802906036377</v>
+        <v>0.1235809326171875</v>
       </c>
       <c r="D37">
-        <v>3.1242609024047852E-2</v>
+        <v>6.2485218048095703E-2</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -13184,10 +13189,10 @@
         <v>1.562166213989258E-2</v>
       </c>
       <c r="C38">
-        <v>9.5021247863769531E-2</v>
+        <v>0.1117162704467773</v>
       </c>
       <c r="D38">
-        <v>1.5619039535522459E-2</v>
+        <v>3.1198740005493161E-2</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -13195,13 +13200,13 @@
         <v>1521</v>
       </c>
       <c r="B39">
-        <v>1.5622377395629879E-2</v>
+        <v>3.1242609024047852E-2</v>
       </c>
       <c r="C39">
-        <v>0.17333698272705081</v>
+        <v>0.1419672966003418</v>
       </c>
       <c r="D39">
-        <v>3.1203031539916989E-2</v>
+        <v>3.1242609024047852E-2</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -13209,13 +13214,13 @@
         <v>1600</v>
       </c>
       <c r="B40">
-        <v>1.5618085861206049E-2</v>
+        <v>3.1294107437133789E-2</v>
       </c>
       <c r="C40">
-        <v>0.12704181671142581</v>
+        <v>0.111600399017334</v>
       </c>
       <c r="D40">
-        <v>1.566720008850098E-2</v>
+        <v>3.1201601028442379E-2</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -13223,13 +13228,13 @@
         <v>1681</v>
       </c>
       <c r="B41">
-        <v>1.562070846557617E-2</v>
+        <v>3.124332427978516E-2</v>
       </c>
       <c r="C41">
-        <v>0.15343499183654791</v>
+        <v>0.14076447486877439</v>
       </c>
       <c r="D41">
-        <v>2.3907899856567379E-2</v>
+        <v>1.784205436706543E-2</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -13237,13 +13242,13 @@
         <v>1764</v>
       </c>
       <c r="B42">
-        <v>1.562190055847168E-2</v>
+        <v>1.5576839447021479E-2</v>
       </c>
       <c r="C42">
-        <v>4.6858310699462891E-2</v>
+        <v>0.1250147819519043</v>
       </c>
       <c r="D42">
-        <v>1.562166213989258E-2</v>
+        <v>3.3859968185424798E-2</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -13251,13 +13256,13 @@
         <v>1849</v>
       </c>
       <c r="B43">
-        <v>1.558232307434082E-2</v>
+        <v>6.2484979629516602E-2</v>
       </c>
       <c r="C43">
-        <v>0.14063119888305661</v>
+        <v>0.1252171993255615</v>
       </c>
       <c r="D43">
-        <v>3.1252145767211907E-2</v>
+        <v>3.1287431716918952E-2</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -13265,13 +13270,13 @@
         <v>1936</v>
       </c>
       <c r="B44">
-        <v>0</v>
+        <v>1.55794620513916E-2</v>
       </c>
       <c r="C44">
-        <v>4.6861648559570313E-2</v>
+        <v>9.3770027160644531E-2</v>
       </c>
       <c r="D44">
-        <v>1.5661716461181641E-2</v>
+        <v>1.5576601028442379E-2</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -13279,13 +13284,13 @@
         <v>2025</v>
       </c>
       <c r="B45">
-        <v>1.562213897705078E-2</v>
+        <v>1.562047004699707E-2</v>
       </c>
       <c r="C45">
-        <v>9.376215934753418E-2</v>
+        <v>9.372711181640625E-2</v>
       </c>
       <c r="D45">
-        <v>3.124690055847168E-2</v>
+        <v>3.120064735412598E-2</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -13293,13 +13298,13 @@
         <v>2116</v>
       </c>
       <c r="B46">
-        <v>1.5661001205444339E-2</v>
+        <v>1.5581607818603521E-2</v>
       </c>
       <c r="C46">
-        <v>6.2445878982543952E-2</v>
+        <v>7.9782485961914063E-2</v>
       </c>
       <c r="D46">
-        <v>1.562094688415527E-2</v>
+        <v>1.562023162841797E-2</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -13307,13 +13312,13 @@
         <v>2209</v>
       </c>
       <c r="B47">
-        <v>1.2262344360351561E-2</v>
+        <v>1.562809944152832E-2</v>
       </c>
       <c r="C47">
-        <v>9.3726634979248047E-2</v>
+        <v>7.810664176940918E-2</v>
       </c>
       <c r="D47">
-        <v>1.5665054321289059E-2</v>
+        <v>1.5611410140991209E-2</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -13321,13 +13326,13 @@
         <v>2304</v>
       </c>
       <c r="B48">
-        <v>1.562213897705078E-2</v>
+        <v>1.563262939453125E-2</v>
       </c>
       <c r="C48">
-        <v>0.11081933975219729</v>
+        <v>7.8058481216430664E-2</v>
       </c>
       <c r="D48">
-        <v>3.1280517578125E-2</v>
+        <v>3.124284744262695E-2</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -13335,13 +13340,13 @@
         <v>2401</v>
       </c>
       <c r="B49">
-        <v>1.562142372131348E-2</v>
+        <v>2.317357063293457E-2</v>
       </c>
       <c r="C49">
-        <v>7.8107595443725586E-2</v>
+        <v>0.124971866607666</v>
       </c>
       <c r="D49">
-        <v>1.566410064697266E-2</v>
+        <v>3.1243801116943359E-2</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -13349,13 +13354,13 @@
         <v>2500</v>
       </c>
       <c r="B50">
-        <v>1.562166213989258E-2</v>
+        <v>0</v>
       </c>
       <c r="C50">
-        <v>0.1093459129333496</v>
+        <v>9.8179340362548828E-2</v>
       </c>
       <c r="D50">
-        <v>3.1244754791259769E-2</v>
+        <v>1.221036911010742E-2</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -13363,13 +13368,13 @@
         <v>2601</v>
       </c>
       <c r="B51">
-        <v>1.562166213989258E-2</v>
+        <v>1.561689376831055E-2</v>
       </c>
       <c r="C51">
-        <v>7.810664176940918E-2</v>
+        <v>7.8112602233886719E-2</v>
       </c>
       <c r="D51">
-        <v>1.5622377395629879E-2</v>
+        <v>1.5615463256835939E-2</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -13377,13 +13382,13 @@
         <v>2704</v>
       </c>
       <c r="B52">
-        <v>1.5619754791259771E-2</v>
+        <v>1.560521125793457E-2</v>
       </c>
       <c r="C52">
-        <v>0.1093482971191406</v>
+        <v>9.373927116394043E-2</v>
       </c>
       <c r="D52">
-        <v>1.562118530273438E-2</v>
+        <v>3.1192302703857418E-2</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -13391,13 +13396,13 @@
         <v>2809</v>
       </c>
       <c r="B53">
-        <v>1.5670061111450199E-2</v>
+        <v>1.562213897705078E-2</v>
       </c>
       <c r="C53">
-        <v>3.1236171722412109E-2</v>
+        <v>9.2825651168823242E-2</v>
       </c>
       <c r="D53">
-        <v>1.5580654144287109E-2</v>
+        <v>1.8869161605834961E-2</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -13405,13 +13410,13 @@
         <v>2916</v>
       </c>
       <c r="B54">
-        <v>3.1290769577026367E-2</v>
+        <v>1.5622377395629879E-2</v>
       </c>
       <c r="C54">
-        <v>0.1106147766113281</v>
+        <v>7.8147411346435547E-2</v>
       </c>
       <c r="D54">
-        <v>3.1245231628417969E-2</v>
+        <v>3.1243801116943359E-2</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -13419,13 +13424,13 @@
         <v>3025</v>
       </c>
       <c r="B55">
-        <v>1.562118530273438E-2</v>
+        <v>1.5619993209838871E-2</v>
       </c>
       <c r="C55">
-        <v>6.24847412109375E-2</v>
+        <v>0.12502312660217291</v>
       </c>
       <c r="D55">
-        <v>1.586461067199707E-2</v>
+        <v>1.5570163726806641E-2</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -13433,13 +13438,13 @@
         <v>3136</v>
       </c>
       <c r="B56">
-        <v>1.5622377395629879E-2</v>
+        <v>1.562118530273438E-2</v>
       </c>
       <c r="C56">
-        <v>6.2484264373779297E-2</v>
+        <v>8.9928150177001953E-2</v>
       </c>
       <c r="D56">
-        <v>1.562094688415527E-2</v>
+        <v>6.2527894973754883E-2</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -13447,13 +13452,13 @@
         <v>3249</v>
       </c>
       <c r="B57">
-        <v>0</v>
+        <v>1.5573263168334959E-2</v>
       </c>
       <c r="C57">
-        <v>6.2486171722412109E-2</v>
+        <v>9.4938039779663086E-2</v>
       </c>
       <c r="D57">
-        <v>1.562047004699707E-2</v>
+        <v>3.1293392181396477E-2</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -13461,13 +13466,13 @@
         <v>3364</v>
       </c>
       <c r="B58">
-        <v>1.5622377395629879E-2</v>
+        <v>0</v>
       </c>
       <c r="C58">
-        <v>0.1249675750732422</v>
+        <v>0.10504460334777831</v>
       </c>
       <c r="D58">
-        <v>3.1244993209838871E-2</v>
+        <v>2.0943880081176761E-2</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -13475,13 +13480,13 @@
         <v>3481</v>
       </c>
       <c r="B59">
-        <v>3.1242132186889648E-2</v>
+        <v>1.5623092651367189E-2</v>
       </c>
       <c r="C59">
-        <v>7.8102827072143555E-2</v>
+        <v>9.3732118606567383E-2</v>
       </c>
       <c r="D59">
-        <v>1.5622377395629879E-2</v>
+        <v>1.5616655349731451E-2</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
@@ -13489,13 +13494,13 @@
         <v>3600</v>
       </c>
       <c r="B60">
-        <v>8.0060958862304688E-3</v>
+        <v>0</v>
       </c>
       <c r="C60">
-        <v>4.7460794448852539E-2</v>
+        <v>9.3770742416381836E-2</v>
       </c>
       <c r="D60">
-        <v>0</v>
+        <v>1.558041572570801E-2</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -13503,13 +13508,13 @@
         <v>3721</v>
       </c>
       <c r="B61">
-        <v>1.562380790710449E-2</v>
+        <v>1.5648603439331051E-2</v>
       </c>
       <c r="C61">
-        <v>9.3727350234985352E-2</v>
+        <v>8.033442497253418E-2</v>
       </c>
       <c r="D61">
-        <v>1.562166213989258E-2</v>
+        <v>1.562190055847168E-2</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -13517,13 +13522,13 @@
         <v>3844</v>
       </c>
       <c r="B62">
-        <v>3.1194925308227539E-2</v>
+        <v>1.562047004699707E-2</v>
       </c>
       <c r="C62">
-        <v>0.1093876361846924</v>
+        <v>9.3731403350830078E-2</v>
       </c>
       <c r="D62">
-        <v>3.1205892562866211E-2</v>
+        <v>1.5623331069946291E-2</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
@@ -13531,13 +13536,13 @@
         <v>3969</v>
       </c>
       <c r="B63">
-        <v>1.562166213989258E-2</v>
+        <v>1.5625715255737301E-2</v>
       </c>
       <c r="C63">
-        <v>3.124237060546875E-2</v>
+        <v>7.8110218048095703E-2</v>
       </c>
       <c r="D63">
-        <v>1.562094688415527E-2</v>
+        <v>3.1193733215332031E-2</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
@@ -13545,13 +13550,13 @@
         <v>4096</v>
       </c>
       <c r="B64">
-        <v>0</v>
+        <v>1.5581130981445311E-2</v>
       </c>
       <c r="C64">
-        <v>4.6864986419677727E-2</v>
+        <v>9.3773603439331055E-2</v>
       </c>
       <c r="D64">
-        <v>0</v>
+        <v>1.562118530273438E-2</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -13559,13 +13564,13 @@
         <v>4225</v>
       </c>
       <c r="B65">
-        <v>1.5622377395629879E-2</v>
+        <v>1.562118530273438E-2</v>
       </c>
       <c r="C65">
-        <v>6.2481403350830078E-2</v>
+        <v>8.4460020065307617E-2</v>
       </c>
       <c r="D65">
-        <v>3.1244516372680661E-2</v>
+        <v>2.0941019058227539E-2</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
@@ -13573,13 +13578,13 @@
         <v>4356</v>
       </c>
       <c r="B66">
-        <v>1.204299926757812E-2</v>
+        <v>1.561379432678223E-2</v>
       </c>
       <c r="C66">
-        <v>7.4836015701293945E-2</v>
+        <v>7.8099489212036133E-2</v>
       </c>
       <c r="D66">
-        <v>1.562118530273438E-2</v>
+        <v>3.125E-2</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
@@ -13587,13 +13592,13 @@
         <v>4489</v>
       </c>
       <c r="B67">
-        <v>0</v>
+        <v>1.562905311584473E-2</v>
       </c>
       <c r="C67">
-        <v>3.1250953674316413E-2</v>
+        <v>9.3684911727905273E-2</v>
       </c>
       <c r="D67">
-        <v>1.5576601028442379E-2</v>
+        <v>1.562070846557617E-2</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -13601,13 +13606,13 @@
         <v>4624</v>
       </c>
       <c r="B68">
-        <v>0</v>
+        <v>9.2382431030273438E-3</v>
       </c>
       <c r="C68">
-        <v>4.6865224838256843E-2</v>
+        <v>7.8108310699462891E-2</v>
       </c>
       <c r="D68">
-        <v>0</v>
+        <v>3.124284744262695E-2</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
@@ -13615,13 +13620,13 @@
         <v>4761</v>
       </c>
       <c r="B69">
-        <v>0</v>
+        <v>1.5627861022949219E-2</v>
       </c>
       <c r="C69">
-        <v>4.6861171722412109E-2</v>
+        <v>7.8106403350830078E-2</v>
       </c>
       <c r="D69">
-        <v>1.5619516372680661E-2</v>
+        <v>3.458714485168457E-2</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
@@ -13629,13 +13634,13 @@
         <v>4900</v>
       </c>
       <c r="B70">
-        <v>0</v>
+        <v>1.5623331069946291E-2</v>
       </c>
       <c r="C70">
-        <v>6.2485933303833008E-2</v>
+        <v>9.3771934509277344E-2</v>
       </c>
       <c r="D70">
-        <v>1.562047004699707E-2</v>
+        <v>1.557588577270508E-2</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
@@ -13643,13 +13648,13 @@
         <v>5041</v>
       </c>
       <c r="B71">
-        <v>0</v>
+        <v>1.562809944152832E-2</v>
       </c>
       <c r="C71">
-        <v>1.562404632568359E-2</v>
+        <v>9.3718767166137695E-2</v>
       </c>
       <c r="D71">
-        <v>1.5619516372680661E-2</v>
+        <v>1.562094688415527E-2</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
@@ -13657,13 +13662,13 @@
         <v>5184</v>
       </c>
       <c r="B72">
-        <v>2.0031929016113281E-2</v>
+        <v>1.5675783157348629E-2</v>
       </c>
       <c r="C72">
-        <v>2.8254032135009769E-2</v>
+        <v>9.3719244003295898E-2</v>
       </c>
       <c r="D72">
-        <v>1.5664339065551761E-2</v>
+        <v>1.562118530273438E-2</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
@@ -13671,13 +13676,13 @@
         <v>5329</v>
       </c>
       <c r="B73">
-        <v>3.1239748001098629E-2</v>
+        <v>1.5674114227294918E-2</v>
       </c>
       <c r="C73">
-        <v>0.1106870174407959</v>
+        <v>7.8103780746459961E-2</v>
       </c>
       <c r="D73">
-        <v>3.1244754791259769E-2</v>
+        <v>3.124594688415527E-2</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
@@ -13685,13 +13690,13 @@
         <v>5476</v>
       </c>
       <c r="B74">
-        <v>1.557493209838867E-2</v>
+        <v>1.562070846557617E-2</v>
       </c>
       <c r="C74">
-        <v>7.1375608444213867E-2</v>
+        <v>0.14284324645996091</v>
       </c>
       <c r="D74">
-        <v>1.2247562408447271E-2</v>
+        <v>1.562213897705078E-2</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
@@ -13699,13 +13704,13 @@
         <v>5625</v>
       </c>
       <c r="B75">
-        <v>1.557135581970215E-2</v>
+        <v>1.5631198883056641E-2</v>
       </c>
       <c r="C75">
-        <v>4.6863079071044922E-2</v>
+        <v>9.3675851821899414E-2</v>
       </c>
       <c r="D75">
-        <v>0</v>
+        <v>1.5670537948608398E-2</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
@@ -13713,13 +13718,13 @@
         <v>5776</v>
       </c>
       <c r="B76">
-        <v>1.5619993209838871E-2</v>
+        <v>1.5653133392333981E-2</v>
       </c>
       <c r="C76">
-        <v>3.1244039535522461E-2</v>
+        <v>7.8121423721313477E-2</v>
       </c>
       <c r="D76">
-        <v>1.562166213989258E-2</v>
+        <v>3.1244754791259769E-2</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
@@ -13727,13 +13732,13 @@
         <v>5929</v>
       </c>
       <c r="B77">
-        <v>1.5622615814208979E-2</v>
+        <v>1.5630722045898441E-2</v>
       </c>
       <c r="C77">
-        <v>6.2482357025146477E-2</v>
+        <v>7.8099966049194336E-2</v>
       </c>
       <c r="D77">
-        <v>1.5622854232788089E-2</v>
+        <v>1.562118530273438E-2</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
@@ -13741,13 +13746,13 @@
         <v>6084</v>
       </c>
       <c r="B78">
-        <v>1.562023162841797E-2</v>
+        <v>1.5619993209838871E-2</v>
       </c>
       <c r="C78">
-        <v>3.124332427978516E-2</v>
+        <v>7.8101396560668945E-2</v>
       </c>
       <c r="D78">
-        <v>1.5619993209838871E-2</v>
+        <v>3.1240224838256839E-2</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
@@ -13755,13 +13760,13 @@
         <v>6241</v>
       </c>
       <c r="B79">
-        <v>1.5624284744262701E-2</v>
+        <v>3.1191349029541019E-2</v>
       </c>
       <c r="C79">
-        <v>6.2483787536621087E-2</v>
+        <v>0.10267090797424321</v>
       </c>
       <c r="D79">
-        <v>1.562094688415527E-2</v>
+        <v>3.1243085861206051E-2</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
@@ -13769,13 +13774,13 @@
         <v>6400</v>
       </c>
       <c r="B80">
-        <v>1.5624284744262701E-2</v>
+        <v>1.562380790710449E-2</v>
       </c>
       <c r="C80">
-        <v>4.6860933303833008E-2</v>
+        <v>0.10934972763061521</v>
       </c>
       <c r="D80">
-        <v>0</v>
+        <v>4.6862363815307617E-2</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
@@ -13783,13 +13788,13 @@
         <v>6561</v>
       </c>
       <c r="B81">
-        <v>1.5667438507080082E-2</v>
+        <v>1.562166213989258E-2</v>
       </c>
       <c r="C81">
-        <v>5.115199089050293E-2</v>
+        <v>9.367823600769043E-2</v>
       </c>
       <c r="D81">
-        <v>1.200127601623535E-2</v>
+        <v>3.1239986419677731E-2</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
@@ -13797,13 +13802,13 @@
         <v>6724</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>1.562142372131348E-2</v>
       </c>
       <c r="C82">
-        <v>4.6863079071044922E-2</v>
+        <v>0.15621328353881839</v>
       </c>
       <c r="D82">
-        <v>2.0071268081665039E-2</v>
+        <v>4.686427116394043E-2</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
@@ -13811,13 +13816,13 @@
         <v>6889</v>
       </c>
       <c r="B83">
-        <v>1.561856269836426E-2</v>
+        <v>1.5672445297241211E-2</v>
       </c>
       <c r="C83">
-        <v>0.13331866264343259</v>
+        <v>0.14188504219055181</v>
       </c>
       <c r="D83">
-        <v>1.5622377395629879E-2</v>
+        <v>2.5927543640136719E-2</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
@@ -13825,13 +13830,13 @@
         <v>7056</v>
       </c>
       <c r="B84">
-        <v>1.5623331069946291E-2</v>
+        <v>1.5619277954101561E-2</v>
       </c>
       <c r="C84">
-        <v>6.2487125396728523E-2</v>
+        <v>0.1106266975402832</v>
       </c>
       <c r="D84">
-        <v>1.5618801116943359E-2</v>
+        <v>1.5658855438232418E-2</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
@@ -13839,13 +13844,13 @@
         <v>7225</v>
       </c>
       <c r="B85">
-        <v>4.1887760162353524E-3</v>
+        <v>1.562094688415527E-2</v>
       </c>
       <c r="C85">
-        <v>3.124237060546875E-2</v>
+        <v>9.846949577331543E-2</v>
       </c>
       <c r="D85">
-        <v>1.5662431716918949E-2</v>
+        <v>3.124284744262695E-2</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
@@ -13853,13 +13858,13 @@
         <v>7396</v>
       </c>
       <c r="B86">
-        <v>4.1594505310058594E-3</v>
+        <v>1.562380790710449E-2</v>
       </c>
       <c r="C86">
-        <v>1.5623331069946291E-2</v>
+        <v>8.1265449523925781E-2</v>
       </c>
       <c r="D86">
-        <v>1.5622377395629879E-2</v>
+        <v>3.124332427978516E-2</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
@@ -13867,13 +13872,13 @@
         <v>7569</v>
       </c>
       <c r="B87">
-        <v>1.5580654144287109E-2</v>
+        <v>1.401209831237793E-2</v>
       </c>
       <c r="C87">
-        <v>4.6906232833862298E-2</v>
+        <v>9.3285560607910156E-2</v>
       </c>
       <c r="D87">
-        <v>1.55789852142334E-2</v>
+        <v>1.56254768371582E-2</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
@@ -13884,10 +13889,10 @@
         <v>0</v>
       </c>
       <c r="C88">
-        <v>3.1285762786865227E-2</v>
+        <v>0.10934782028198239</v>
       </c>
       <c r="D88">
-        <v>1.5580654144287109E-2</v>
+        <v>3.1244039535522461E-2</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
@@ -13895,13 +13900,13 @@
         <v>7921</v>
       </c>
       <c r="B89">
-        <v>1.22377872467041E-2</v>
+        <v>1.5580654144287109E-2</v>
       </c>
       <c r="C89">
-        <v>4.6903610229492188E-2</v>
+        <v>9.3726158142089844E-2</v>
       </c>
       <c r="D89">
-        <v>1.5580892562866209E-2</v>
+        <v>3.1243801116943359E-2</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
@@ -13909,13 +13914,13 @@
         <v>8100</v>
       </c>
       <c r="B90">
-        <v>4.0006637573242188E-3</v>
+        <v>1.558637619018555E-2</v>
       </c>
       <c r="C90">
-        <v>2.0072698593139648E-2</v>
+        <v>9.3729019165039063E-2</v>
       </c>
       <c r="D90">
-        <v>0</v>
+        <v>1.5662908554077148E-2</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
@@ -13923,13 +13928,13 @@
         <v>8281</v>
       </c>
       <c r="B91">
-        <v>1.599979400634766E-2</v>
+        <v>1.5663862228393551E-2</v>
       </c>
       <c r="C91">
-        <v>3.2222747802734382E-2</v>
+        <v>0.1249265670776367</v>
       </c>
       <c r="D91">
-        <v>1.5658140182495121E-2</v>
+        <v>3.124284744262695E-2</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
@@ -13937,13 +13942,13 @@
         <v>8464</v>
       </c>
       <c r="B92">
-        <v>1.5622854232788089E-2</v>
+        <v>1.562142372131348E-2</v>
       </c>
       <c r="C92">
-        <v>1.5619277954101561E-2</v>
+        <v>0.1093485355377197</v>
       </c>
       <c r="D92">
-        <v>1.9916534423828122E-2</v>
+        <v>4.6863794326782227E-2</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
@@ -13951,13 +13956,13 @@
         <v>8649</v>
       </c>
       <c r="B93">
-        <v>0</v>
+        <v>3.1245231628417969E-2</v>
       </c>
       <c r="C93">
-        <v>4.686284065246582E-2</v>
+        <v>0.14340734481811521</v>
       </c>
       <c r="D93">
-        <v>0</v>
+        <v>3.124284744262695E-2</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
@@ -13965,13 +13970,13 @@
         <v>8836</v>
       </c>
       <c r="B94">
-        <v>1.5630960464477539E-2</v>
+        <v>3.124284744262695E-2</v>
       </c>
       <c r="C94">
-        <v>3.1196832656860352E-2</v>
+        <v>0.22003054618835449</v>
       </c>
       <c r="D94">
-        <v>0</v>
+        <v>4.6863794326782227E-2</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
@@ -13979,13 +13984,13 @@
         <v>9025</v>
       </c>
       <c r="B95">
-        <v>3.081607818603516E-2</v>
+        <v>1.562166213989258E-2</v>
       </c>
       <c r="C95">
-        <v>0.12492489814758299</v>
+        <v>0.15626001358032229</v>
       </c>
       <c r="D95">
-        <v>1.562166213989258E-2</v>
+        <v>3.1247138977050781E-2</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
@@ -13993,13 +13998,13 @@
         <v>9216</v>
       </c>
       <c r="B96">
-        <v>0</v>
+        <v>1.5626192092895511E-2</v>
       </c>
       <c r="C96">
-        <v>6.2486171722412109E-2</v>
+        <v>0.12497687339782711</v>
       </c>
       <c r="D96">
-        <v>1.562070846557617E-2</v>
+        <v>4.6943187713623047E-2</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
@@ -14007,13 +14012,13 @@
         <v>9409</v>
       </c>
       <c r="B97">
-        <v>1.5619516372680661E-2</v>
+        <v>3.8665294647216797E-2</v>
       </c>
       <c r="C97">
-        <v>4.6865701675415039E-2</v>
+        <v>0.1042938232421875</v>
       </c>
       <c r="D97">
-        <v>0</v>
+        <v>3.1198978424072269E-2</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
@@ -14021,13 +14026,13 @@
         <v>9604</v>
       </c>
       <c r="B98">
-        <v>0</v>
+        <v>1.55789852142334E-2</v>
       </c>
       <c r="C98">
-        <v>4.6862363815307617E-2</v>
+        <v>7.8148841857910156E-2</v>
       </c>
       <c r="D98">
-        <v>1.5619516372680661E-2</v>
+        <v>3.1244516372680661E-2</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
@@ -14035,13 +14040,13 @@
         <v>9801</v>
       </c>
       <c r="B99">
-        <v>0</v>
+        <v>1.5624284744262701E-2</v>
       </c>
       <c r="C99">
-        <v>4.6822071075439453E-2</v>
+        <v>9.3676090240478516E-2</v>
       </c>
       <c r="D99">
-        <v>1.562142372131348E-2</v>
+        <v>1.562118530273438E-2</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
@@ -14049,13 +14054,13 @@
         <v>10000</v>
       </c>
       <c r="B100">
-        <v>1.562190055847168E-2</v>
+        <v>1.566624641418457E-2</v>
       </c>
       <c r="C100">
+        <v>0.1249251365661621</v>
+      </c>
+      <c r="D100">
         <v>3.124237060546875E-2</v>
-      </c>
-      <c r="D100">
-        <v>1.562070846557617E-2</v>
       </c>
     </row>
   </sheetData>
